--- a/export/dicionario.xlsx
+++ b/export/dicionario.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="IBGE" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="PROADESS" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="tmax, tmin, prec, rh" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1281">
   <si>
     <t xml:space="preserve">Variável</t>
   </si>
@@ -3777,6 +3779,149 @@
   </si>
   <si>
     <t xml:space="preserve">Pessoas deficientes residentes de 2 anos ou mais de idade, total, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de enfermeiros, por 100 mil habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de médicos, por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de leitos hospitalares (excluídos os psiquiátricos), por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de estabelecimentos hospitalares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densidade demográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual de internações por Condições Sensíveis à Atenção Primária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura máxima média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observatório de Clima e Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura mínima média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umidade Relativa do ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmax_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal climatológica da temperatura máxima média (1961-1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmin_normal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Normal climatológica da temperatura mínima média (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1961-1990)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">prec_normal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Normal climatológica da precipitação </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(1961-1990)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_normal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Normal climatológica da u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">midade relativa do ar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1961-1990)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3786,7 +3931,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3807,6 +3952,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3851,12 +4001,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4106,15 +4260,15 @@
   </sheetPr>
   <dimension ref="A1:C655"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="85.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4400,7 @@
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4257,7 +4411,7 @@
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4268,7 +4422,7 @@
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4279,7 +4433,7 @@
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4290,7 +4444,7 @@
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4301,7 +4455,7 @@
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4312,7 +4466,7 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4323,7 +4477,7 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4334,7 +4488,7 @@
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4345,7 +4499,7 @@
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4356,7 +4510,7 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4367,7 +4521,7 @@
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4378,7 +4532,7 @@
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4389,7 +4543,7 @@
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4400,7 +4554,7 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4411,7 +4565,7 @@
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4422,7 +4576,7 @@
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4433,7 +4587,7 @@
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4444,7 +4598,7 @@
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4455,7 +4609,7 @@
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4466,7 +4620,7 @@
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4477,7 +4631,7 @@
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4488,7 +4642,7 @@
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4499,7 +4653,7 @@
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4510,7 +4664,7 @@
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4521,7 +4675,7 @@
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4532,7 +4686,7 @@
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4543,7 +4697,7 @@
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4554,7 +4708,7 @@
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4565,7 +4719,7 @@
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4576,7 +4730,7 @@
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4587,7 +4741,7 @@
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4598,7 +4752,7 @@
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4609,7 +4763,7 @@
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4620,7 +4774,7 @@
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4631,7 +4785,7 @@
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4642,7 +4796,7 @@
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4653,7 +4807,7 @@
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4664,7 +4818,7 @@
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4675,7 +4829,7 @@
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4686,7 +4840,7 @@
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4697,7 +4851,7 @@
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4708,7 +4862,7 @@
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4719,7 +4873,7 @@
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4730,7 +4884,7 @@
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4741,7 +4895,7 @@
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4752,7 +4906,7 @@
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4763,7 +4917,7 @@
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4774,7 +4928,7 @@
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4785,7 +4939,7 @@
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4796,7 +4950,7 @@
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4807,7 +4961,7 @@
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4818,7 +4972,7 @@
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4829,7 +4983,7 @@
       <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4840,7 +4994,7 @@
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4851,7 +5005,7 @@
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4862,7 +5016,7 @@
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4873,7 +5027,7 @@
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4884,7 +5038,7 @@
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4895,7 +5049,7 @@
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4906,7 +5060,7 @@
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4917,7 +5071,7 @@
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4928,7 +5082,7 @@
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4939,7 +5093,7 @@
       <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4947,10 +5101,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4958,10 +5112,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4969,10 +5123,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4980,10 +5134,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4991,10 +5145,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5002,10 +5156,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5013,10 +5167,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5024,10 +5178,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5035,10 +5189,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5046,10 +5200,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5057,10 +5211,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5068,10 +5222,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5079,10 +5233,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5090,10 +5244,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5101,10 +5255,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5112,10 +5266,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5123,10 +5277,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5134,10 +5288,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5145,10 +5299,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5156,10 +5310,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5167,10 +5321,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5178,10 +5332,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5189,10 +5343,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5200,10 +5354,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5211,10 +5365,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5222,10 +5376,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5233,10 +5387,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5244,10 +5398,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5255,10 +5409,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5266,10 +5420,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5277,10 +5431,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5288,10 +5442,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5299,10 +5453,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5310,10 +5464,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5321,10 +5475,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5332,10 +5486,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5343,10 +5497,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5354,10 +5508,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5365,10 +5519,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5376,10 +5530,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -5387,10 +5541,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -5398,10 +5552,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -5409,10 +5563,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -5420,10 +5574,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -5431,10 +5585,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -5442,10 +5596,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -5453,10 +5607,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -5464,10 +5618,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -5475,10 +5629,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -5486,10 +5640,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -5497,10 +5651,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -5508,10 +5662,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -5519,10 +5673,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -5530,10 +5684,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -5541,10 +5695,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -5552,10 +5706,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -5563,10 +5717,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -5574,10 +5728,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -5585,10 +5739,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -5596,10 +5750,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -5607,10 +5761,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -5618,10 +5772,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -5629,10 +5783,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5640,10 +5794,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -5651,10 +5805,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -5662,10 +5816,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -5673,10 +5827,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -5684,10 +5838,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -5695,10 +5849,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -5706,10 +5860,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -5717,10 +5871,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -5728,10 +5882,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -5739,10 +5893,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -5750,10 +5904,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -5761,10 +5915,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -5772,10 +5926,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -5783,10 +5937,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -5794,10 +5948,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -5805,10 +5959,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -5816,10 +5970,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -5827,10 +5981,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -5838,10 +5992,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5849,10 +6003,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -5860,10 +6014,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5871,10 +6025,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -5882,10 +6036,10 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -5893,10 +6047,10 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -5904,10 +6058,10 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -5915,10 +6069,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -5926,10 +6080,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -5937,10 +6091,10 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -5948,10 +6102,10 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -5959,10 +6113,10 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -5970,10 +6124,10 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -5981,10 +6135,10 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -5992,10 +6146,10 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -6003,10 +6157,10 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -6014,10 +6168,10 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -6025,10 +6179,10 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -6036,10 +6190,10 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -6047,10 +6201,10 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -6058,10 +6212,10 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -6069,10 +6223,10 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -6080,10 +6234,10 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -6091,10 +6245,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -6102,10 +6256,10 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -6113,10 +6267,10 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -6124,10 +6278,10 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -6135,10 +6289,10 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -6146,10 +6300,10 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -6157,10 +6311,10 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -6168,10 +6322,10 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -6179,10 +6333,10 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -6190,10 +6344,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -6201,10 +6355,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -6212,10 +6366,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -6223,10 +6377,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -6234,10 +6388,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -6245,10 +6399,10 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -6256,10 +6410,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -6267,10 +6421,10 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -6278,10 +6432,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -6289,10 +6443,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -6300,10 +6454,10 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -6311,10 +6465,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -6322,10 +6476,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -6333,10 +6487,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -6344,10 +6498,10 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -6355,10 +6509,10 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -6366,10 +6520,10 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -6377,10 +6531,10 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -6388,10 +6542,10 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -6399,10 +6553,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -6410,10 +6564,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -6421,10 +6575,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -6432,10 +6586,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -6443,10 +6597,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -6454,10 +6608,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -6465,10 +6619,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -6476,10 +6630,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -6487,10 +6641,10 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -6498,10 +6652,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -6509,10 +6663,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -6520,10 +6674,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -6531,10 +6685,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -6542,10 +6696,10 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -6553,10 +6707,10 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -6564,10 +6718,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -6575,10 +6729,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -6586,10 +6740,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -6597,10 +6751,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -6608,10 +6762,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -6619,10 +6773,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -6630,10 +6784,10 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -6641,10 +6795,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -6652,10 +6806,10 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="1" t="s">
         <v>453</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -6663,10 +6817,10 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6674,10 +6828,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="1" t="s">
         <v>457</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -6685,10 +6839,10 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="1" t="s">
         <v>459</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -6696,10 +6850,10 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="1" t="s">
         <v>461</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -6707,10 +6861,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -6718,10 +6872,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -6729,10 +6883,10 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -6740,10 +6894,10 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -6751,10 +6905,10 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -6762,10 +6916,10 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -6773,10 +6927,10 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -6784,10 +6938,10 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -6795,10 +6949,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -6806,10 +6960,10 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -6817,10 +6971,10 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -6828,10 +6982,10 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -6839,10 +6993,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -6850,10 +7004,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -6861,10 +7015,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -6872,10 +7026,10 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -6883,10 +7037,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -6894,10 +7048,10 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -6905,10 +7059,10 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -6916,10 +7070,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -6927,10 +7081,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -6938,10 +7092,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -6949,10 +7103,10 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -6960,10 +7114,10 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -6971,10 +7125,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" s="1" t="s">
         <v>511</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -6982,10 +7136,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -6993,10 +7147,10 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -7004,10 +7158,10 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -7015,10 +7169,10 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -7026,10 +7180,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -7037,10 +7191,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -7048,10 +7202,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -7059,10 +7213,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -7070,10 +7224,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -7081,10 +7235,10 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -7092,10 +7246,10 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="A275" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -7103,10 +7257,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7114,10 +7268,10 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -7125,10 +7279,10 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="A278" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7136,10 +7290,10 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="A279" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -7147,10 +7301,10 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="A280" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" s="1" t="s">
         <v>543</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7158,10 +7312,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="A281" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -7169,10 +7323,10 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="A282" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" s="1" t="s">
         <v>547</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7180,10 +7334,10 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="A283" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -7191,10 +7345,10 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="A284" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" s="1" t="s">
         <v>551</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -7202,10 +7356,10 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="A285" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -7213,10 +7367,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -7224,10 +7378,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="A287" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -7235,10 +7389,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="A288" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -7246,10 +7400,10 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="A289" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="1" t="s">
         <v>561</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -7257,10 +7411,10 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="A290" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" s="1" t="s">
         <v>563</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -7268,10 +7422,10 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="A291" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -7279,10 +7433,10 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="A292" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -7290,10 +7444,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="A293" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" s="1" t="s">
         <v>569</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -7301,10 +7455,10 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="A294" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" s="1" t="s">
         <v>571</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -7312,10 +7466,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="A295" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" s="1" t="s">
         <v>573</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -7323,10 +7477,10 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="A296" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="B296" s="1" t="s">
         <v>575</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -7334,10 +7488,10 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="A297" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -7345,10 +7499,10 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+      <c r="A298" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="B298" s="1" t="s">
         <v>579</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -7356,10 +7510,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="1" t="s">
         <v>581</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -7367,10 +7521,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -7378,10 +7532,10 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="1" t="s">
         <v>585</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -7389,10 +7543,10 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -7400,10 +7554,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -7411,10 +7565,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -7422,10 +7576,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -7433,10 +7587,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -7444,10 +7598,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B307" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -7455,10 +7609,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="1" t="s">
         <v>599</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -7466,10 +7620,10 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -7477,10 +7631,10 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -7488,10 +7642,10 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -7499,10 +7653,10 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -7510,10 +7664,10 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -7521,10 +7675,10 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -7532,10 +7686,10 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="1" t="s">
         <v>613</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -7543,10 +7697,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -7554,10 +7708,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="1" t="s">
         <v>617</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -7565,10 +7719,10 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -7576,10 +7730,10 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="1" t="s">
         <v>621</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -7587,10 +7741,10 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="A320" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B320" s="1" t="s">
         <v>623</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -7598,10 +7752,10 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="A321" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B321" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -7609,10 +7763,10 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="A322" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="B322" s="1" t="s">
         <v>627</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -7620,10 +7774,10 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+      <c r="A323" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="B323" s="1" t="s">
         <v>629</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -7631,10 +7785,10 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+      <c r="A324" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="B324" s="1" t="s">
         <v>631</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -7642,10 +7796,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="A325" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -7653,10 +7807,10 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="A326" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="1" t="s">
         <v>635</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -7664,10 +7818,10 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="A327" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="1" t="s">
         <v>637</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -7675,10 +7829,10 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+      <c r="A328" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="B328" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -7686,10 +7840,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+      <c r="A329" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="B329" s="1" t="s">
         <v>641</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -7697,10 +7851,10 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+      <c r="A330" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="B330" s="1" t="s">
         <v>643</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -7708,10 +7862,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="A331" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="1" t="s">
         <v>645</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -7719,10 +7873,10 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="1" t="s">
         <v>647</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -7730,10 +7884,10 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="1" t="s">
         <v>649</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -7741,10 +7895,10 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="1" t="s">
         <v>651</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -7752,10 +7906,10 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -7763,10 +7917,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="1" t="s">
         <v>655</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -7774,10 +7928,10 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="1" t="s">
         <v>657</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -7785,10 +7939,10 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -7796,10 +7950,10 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="1" t="s">
         <v>661</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -7807,10 +7961,10 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -7818,10 +7972,10 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+      <c r="A341" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -7829,10 +7983,10 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+      <c r="A342" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="1" t="s">
         <v>667</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -7840,10 +7994,10 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+      <c r="A343" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -7851,10 +8005,10 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+      <c r="A344" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -7862,10 +8016,10 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+      <c r="A345" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -7873,10 +8027,10 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+      <c r="A346" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -7884,10 +8038,10 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+      <c r="A347" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -7895,10 +8049,10 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+      <c r="A348" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -7906,10 +8060,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+      <c r="A349" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -7917,10 +8071,10 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="A350" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -7928,10 +8082,10 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="A351" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -7939,10 +8093,10 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="A352" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -7950,10 +8104,10 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+      <c r="A353" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -7961,10 +8115,10 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+      <c r="A354" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -7972,10 +8126,10 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+      <c r="A355" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -7983,10 +8137,10 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+      <c r="A356" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -7994,10 +8148,10 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+      <c r="A357" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B357" s="0" t="s">
+      <c r="B357" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -8005,10 +8159,10 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+      <c r="A358" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B358" s="0" t="s">
+      <c r="B358" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -8016,10 +8170,10 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+      <c r="A359" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B359" s="0" t="s">
+      <c r="B359" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -8027,10 +8181,10 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+      <c r="A360" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B360" s="0" t="s">
+      <c r="B360" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -8038,10 +8192,10 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="A361" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="B361" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -8049,10 +8203,10 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+      <c r="A362" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B362" s="0" t="s">
+      <c r="B362" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -8060,10 +8214,10 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+      <c r="A363" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -8071,10 +8225,10 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="A364" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B364" s="0" t="s">
+      <c r="B364" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -8082,10 +8236,10 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="A365" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B365" s="0" t="s">
+      <c r="B365" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -8093,10 +8247,10 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="A366" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B366" s="0" t="s">
+      <c r="B366" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -8104,10 +8258,10 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="A367" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -8115,10 +8269,10 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="A368" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -8126,10 +8280,10 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="A369" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -8137,10 +8291,10 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+      <c r="A370" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="B370" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -8148,10 +8302,10 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="A371" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B371" s="0" t="s">
+      <c r="B371" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -8159,10 +8313,10 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+      <c r="A372" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="B372" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -8170,10 +8324,10 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+      <c r="A373" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B373" s="0" t="s">
+      <c r="B373" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -8181,10 +8335,10 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+      <c r="A374" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B374" s="0" t="s">
+      <c r="B374" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -8192,10 +8346,10 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+      <c r="A375" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="B375" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -8203,10 +8357,10 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+      <c r="A376" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B376" s="0" t="s">
+      <c r="B376" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -8214,10 +8368,10 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+      <c r="A377" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B377" s="0" t="s">
+      <c r="B377" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -8225,10 +8379,10 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+      <c r="A378" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="B378" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -8236,10 +8390,10 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+      <c r="A379" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="B379" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -8247,10 +8401,10 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+      <c r="A380" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="B380" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -8258,10 +8412,10 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+      <c r="A381" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B381" s="0" t="s">
+      <c r="B381" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -8269,10 +8423,10 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+      <c r="A382" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B382" s="0" t="s">
+      <c r="B382" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -8280,10 +8434,10 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+      <c r="A383" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -8291,10 +8445,10 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+      <c r="A384" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B384" s="0" t="s">
+      <c r="B384" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -8302,10 +8456,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+      <c r="A385" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="B385" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -8313,10 +8467,10 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+      <c r="A386" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B386" s="0" t="s">
+      <c r="B386" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -8324,10 +8478,10 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="A387" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="B387" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -8335,10 +8489,10 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+      <c r="A388" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -8346,10 +8500,10 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+      <c r="A389" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="B389" s="1" t="s">
         <v>739</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -8357,10 +8511,10 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="A390" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="B390" s="1" t="s">
         <v>741</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -8368,10 +8522,10 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="A391" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B391" s="0" t="s">
+      <c r="B391" s="1" t="s">
         <v>743</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -8379,10 +8533,10 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+      <c r="A392" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B392" s="0" t="s">
+      <c r="B392" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -8390,10 +8544,10 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+      <c r="A393" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B393" s="0" t="s">
+      <c r="B393" s="1" t="s">
         <v>747</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -8401,10 +8555,10 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+      <c r="A394" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="1" t="s">
         <v>749</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -8412,10 +8566,10 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="A395" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="1" t="s">
         <v>751</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -8423,10 +8577,10 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+      <c r="A396" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B396" s="0" t="s">
+      <c r="B396" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -8434,10 +8588,10 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+      <c r="A397" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B397" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -8445,10 +8599,10 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="A398" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="B398" s="1" t="s">
         <v>757</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -8456,10 +8610,10 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="A399" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="B399" s="1" t="s">
         <v>759</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -8467,10 +8621,10 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="A400" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="B400" s="1" t="s">
         <v>761</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -8478,10 +8632,10 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="A401" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B401" s="0" t="s">
+      <c r="B401" s="1" t="s">
         <v>763</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -8489,10 +8643,10 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="A402" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="B402" s="1" t="s">
         <v>765</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -8500,10 +8654,10 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="A403" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B403" s="0" t="s">
+      <c r="B403" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -8511,10 +8665,10 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="A404" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B404" s="0" t="s">
+      <c r="B404" s="1" t="s">
         <v>769</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -8522,10 +8676,10 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="A405" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B405" s="0" t="s">
+      <c r="B405" s="1" t="s">
         <v>771</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -8533,10 +8687,10 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="A406" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B406" s="0" t="s">
+      <c r="B406" s="1" t="s">
         <v>773</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -8544,10 +8698,10 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+      <c r="A407" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B407" s="0" t="s">
+      <c r="B407" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -8555,10 +8709,10 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="A408" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B408" s="0" t="s">
+      <c r="B408" s="1" t="s">
         <v>777</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -8566,10 +8720,10 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+      <c r="A409" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B409" s="0" t="s">
+      <c r="B409" s="1" t="s">
         <v>779</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -8577,10 +8731,10 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+      <c r="A410" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B410" s="0" t="s">
+      <c r="B410" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -8588,10 +8742,10 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="A411" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B411" s="0" t="s">
+      <c r="B411" s="1" t="s">
         <v>783</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -8599,10 +8753,10 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+      <c r="A412" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B412" s="0" t="s">
+      <c r="B412" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -8610,10 +8764,10 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+      <c r="A413" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B413" s="0" t="s">
+      <c r="B413" s="1" t="s">
         <v>787</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -8621,10 +8775,10 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="A414" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="B414" s="1" t="s">
         <v>789</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -8632,10 +8786,10 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="A415" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="B415" s="1" t="s">
         <v>791</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -8643,10 +8797,10 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="A416" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B416" s="0" t="s">
+      <c r="B416" s="1" t="s">
         <v>793</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -8654,10 +8808,10 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="A417" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B417" s="0" t="s">
+      <c r="B417" s="1" t="s">
         <v>795</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -8665,10 +8819,10 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="A418" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B418" s="0" t="s">
+      <c r="B418" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -8676,10 +8830,10 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="A419" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B419" s="0" t="s">
+      <c r="B419" s="1" t="s">
         <v>799</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -8687,10 +8841,10 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+      <c r="A420" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B420" s="0" t="s">
+      <c r="B420" s="1" t="s">
         <v>801</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -8698,10 +8852,10 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+      <c r="A421" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B421" s="0" t="s">
+      <c r="B421" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -8709,10 +8863,10 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+      <c r="A422" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B422" s="0" t="s">
+      <c r="B422" s="1" t="s">
         <v>805</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -8720,10 +8874,10 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+      <c r="A423" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="B423" s="1" t="s">
         <v>807</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -8731,10 +8885,10 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+      <c r="A424" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B424" s="0" t="s">
+      <c r="B424" s="1" t="s">
         <v>809</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -8742,10 +8896,10 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+      <c r="A425" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B425" s="0" t="s">
+      <c r="B425" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -8753,10 +8907,10 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+      <c r="A426" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B426" s="0" t="s">
+      <c r="B426" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -8764,10 +8918,10 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+      <c r="A427" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B427" s="0" t="s">
+      <c r="B427" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -8775,10 +8929,10 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+      <c r="A428" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="B428" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -8786,10 +8940,10 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+      <c r="A429" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B429" s="0" t="s">
+      <c r="B429" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -8797,10 +8951,10 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
+      <c r="A430" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B430" s="0" t="s">
+      <c r="B430" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -8808,10 +8962,10 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
+      <c r="A431" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B431" s="0" t="s">
+      <c r="B431" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -8819,10 +8973,10 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
+      <c r="A432" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B432" s="0" t="s">
+      <c r="B432" s="1" t="s">
         <v>825</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -8830,10 +8984,10 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+      <c r="A433" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B433" s="0" t="s">
+      <c r="B433" s="1" t="s">
         <v>827</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -8841,10 +8995,10 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="A434" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B434" s="0" t="s">
+      <c r="B434" s="1" t="s">
         <v>829</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -8852,10 +9006,10 @@
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
+      <c r="A435" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B435" s="0" t="s">
+      <c r="B435" s="1" t="s">
         <v>831</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -8863,10 +9017,10 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+      <c r="A436" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B436" s="0" t="s">
+      <c r="B436" s="1" t="s">
         <v>833</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -8874,10 +9028,10 @@
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+      <c r="A437" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B437" s="0" t="s">
+      <c r="B437" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -8885,10 +9039,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
+      <c r="A438" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B438" s="0" t="s">
+      <c r="B438" s="1" t="s">
         <v>837</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -8896,10 +9050,10 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+      <c r="A439" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B439" s="0" t="s">
+      <c r="B439" s="1" t="s">
         <v>839</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -8907,10 +9061,10 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
+      <c r="A440" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B440" s="0" t="s">
+      <c r="B440" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -8918,10 +9072,10 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
+      <c r="A441" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B441" s="0" t="s">
+      <c r="B441" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -8929,10 +9083,10 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
+      <c r="A442" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="B442" s="1" t="s">
         <v>845</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -8940,10 +9094,10 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
+      <c r="A443" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B443" s="0" t="s">
+      <c r="B443" s="1" t="s">
         <v>847</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -8951,10 +9105,10 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
+      <c r="A444" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B444" s="0" t="s">
+      <c r="B444" s="1" t="s">
         <v>849</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -8962,10 +9116,10 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
+      <c r="A445" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B445" s="0" t="s">
+      <c r="B445" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -8973,10 +9127,10 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
+      <c r="A446" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B446" s="0" t="s">
+      <c r="B446" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -8984,10 +9138,10 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
+      <c r="A447" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B447" s="0" t="s">
+      <c r="B447" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -8995,10 +9149,10 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+      <c r="A448" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B448" s="0" t="s">
+      <c r="B448" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -9006,10 +9160,10 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+      <c r="A449" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B449" s="0" t="s">
+      <c r="B449" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -9017,10 +9171,10 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+      <c r="A450" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B450" s="0" t="s">
+      <c r="B450" s="1" t="s">
         <v>861</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -9028,10 +9182,10 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+      <c r="A451" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B451" s="0" t="s">
+      <c r="B451" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -9039,10 +9193,10 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+      <c r="A452" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B452" s="0" t="s">
+      <c r="B452" s="1" t="s">
         <v>865</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -9050,10 +9204,10 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
+      <c r="A453" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B453" s="0" t="s">
+      <c r="B453" s="1" t="s">
         <v>867</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -9061,10 +9215,10 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
+      <c r="A454" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B454" s="0" t="s">
+      <c r="B454" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -9072,10 +9226,10 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
+      <c r="A455" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B455" s="0" t="s">
+      <c r="B455" s="1" t="s">
         <v>871</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -9083,10 +9237,10 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
+      <c r="A456" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B456" s="0" t="s">
+      <c r="B456" s="1" t="s">
         <v>873</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -9094,10 +9248,10 @@
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
+      <c r="A457" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B457" s="0" t="s">
+      <c r="B457" s="1" t="s">
         <v>875</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -9105,10 +9259,10 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+      <c r="A458" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B458" s="0" t="s">
+      <c r="B458" s="1" t="s">
         <v>877</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -9116,10 +9270,10 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="A459" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B459" s="0" t="s">
+      <c r="B459" s="1" t="s">
         <v>879</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -9127,10 +9281,10 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+      <c r="A460" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B460" s="0" t="s">
+      <c r="B460" s="1" t="s">
         <v>881</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -9138,10 +9292,10 @@
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+      <c r="A461" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B461" s="0" t="s">
+      <c r="B461" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -9149,10 +9303,10 @@
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+      <c r="A462" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B462" s="0" t="s">
+      <c r="B462" s="1" t="s">
         <v>885</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -9160,10 +9314,10 @@
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
+      <c r="A463" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B463" s="0" t="s">
+      <c r="B463" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -9171,10 +9325,10 @@
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
+      <c r="A464" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B464" s="0" t="s">
+      <c r="B464" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -9182,10 +9336,10 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
+      <c r="A465" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B465" s="0" t="s">
+      <c r="B465" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -9193,10 +9347,10 @@
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
+      <c r="A466" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B466" s="0" t="s">
+      <c r="B466" s="1" t="s">
         <v>893</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -9204,10 +9358,10 @@
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
+      <c r="A467" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B467" s="0" t="s">
+      <c r="B467" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -9215,10 +9369,10 @@
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
+      <c r="A468" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B468" s="0" t="s">
+      <c r="B468" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -9226,10 +9380,10 @@
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
+      <c r="A469" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B469" s="0" t="s">
+      <c r="B469" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -9237,10 +9391,10 @@
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
+      <c r="A470" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B470" s="0" t="s">
+      <c r="B470" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -9248,10 +9402,10 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
+      <c r="A471" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B471" s="0" t="s">
+      <c r="B471" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -9259,10 +9413,10 @@
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
+      <c r="A472" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B472" s="0" t="s">
+      <c r="B472" s="1" t="s">
         <v>905</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -9270,10 +9424,10 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
+      <c r="A473" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B473" s="0" t="s">
+      <c r="B473" s="1" t="s">
         <v>907</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -9281,10 +9435,10 @@
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
+      <c r="A474" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B474" s="0" t="s">
+      <c r="B474" s="1" t="s">
         <v>909</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -9292,10 +9446,10 @@
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
+      <c r="A475" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B475" s="0" t="s">
+      <c r="B475" s="1" t="s">
         <v>911</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -9303,10 +9457,10 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
+      <c r="A476" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B476" s="0" t="s">
+      <c r="B476" s="1" t="s">
         <v>913</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -9314,10 +9468,10 @@
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
+      <c r="A477" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B477" s="0" t="s">
+      <c r="B477" s="1" t="s">
         <v>915</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -9325,10 +9479,10 @@
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
+      <c r="A478" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B478" s="0" t="s">
+      <c r="B478" s="1" t="s">
         <v>917</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -9336,10 +9490,10 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
+      <c r="A479" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B479" s="0" t="s">
+      <c r="B479" s="1" t="s">
         <v>919</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -9347,10 +9501,10 @@
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
+      <c r="A480" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B480" s="0" t="s">
+      <c r="B480" s="1" t="s">
         <v>921</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -9358,10 +9512,10 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
+      <c r="A481" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B481" s="0" t="s">
+      <c r="B481" s="1" t="s">
         <v>923</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -9369,10 +9523,10 @@
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
+      <c r="A482" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B482" s="0" t="s">
+      <c r="B482" s="1" t="s">
         <v>925</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -9380,10 +9534,10 @@
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
+      <c r="A483" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B483" s="0" t="s">
+      <c r="B483" s="1" t="s">
         <v>927</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -9391,10 +9545,10 @@
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
+      <c r="A484" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B484" s="0" t="s">
+      <c r="B484" s="1" t="s">
         <v>929</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -9402,10 +9556,10 @@
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
+      <c r="A485" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B485" s="0" t="s">
+      <c r="B485" s="1" t="s">
         <v>931</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -9413,10 +9567,10 @@
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
+      <c r="A486" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B486" s="0" t="s">
+      <c r="B486" s="1" t="s">
         <v>933</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -9424,10 +9578,10 @@
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
+      <c r="A487" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B487" s="0" t="s">
+      <c r="B487" s="1" t="s">
         <v>935</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9435,10 +9589,10 @@
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
+      <c r="A488" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B488" s="0" t="s">
+      <c r="B488" s="1" t="s">
         <v>937</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -9446,10 +9600,10 @@
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
+      <c r="A489" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B489" s="0" t="s">
+      <c r="B489" s="1" t="s">
         <v>939</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -9457,10 +9611,10 @@
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
+      <c r="A490" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B490" s="0" t="s">
+      <c r="B490" s="1" t="s">
         <v>941</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -9468,10 +9622,10 @@
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
+      <c r="A491" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B491" s="0" t="s">
+      <c r="B491" s="1" t="s">
         <v>943</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -9479,10 +9633,10 @@
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
+      <c r="A492" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B492" s="0" t="s">
+      <c r="B492" s="1" t="s">
         <v>945</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -9490,10 +9644,10 @@
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
+      <c r="A493" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B493" s="0" t="s">
+      <c r="B493" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -9501,10 +9655,10 @@
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
+      <c r="A494" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B494" s="0" t="s">
+      <c r="B494" s="1" t="s">
         <v>949</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -9512,10 +9666,10 @@
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
+      <c r="A495" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B495" s="0" t="s">
+      <c r="B495" s="1" t="s">
         <v>951</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -9523,10 +9677,10 @@
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
+      <c r="A496" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B496" s="0" t="s">
+      <c r="B496" s="1" t="s">
         <v>953</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -9534,10 +9688,10 @@
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
+      <c r="A497" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B497" s="0" t="s">
+      <c r="B497" s="1" t="s">
         <v>955</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -9545,10 +9699,10 @@
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
+      <c r="A498" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B498" s="0" t="s">
+      <c r="B498" s="1" t="s">
         <v>957</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -9556,10 +9710,10 @@
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
+      <c r="A499" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B499" s="0" t="s">
+      <c r="B499" s="1" t="s">
         <v>959</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -9567,10 +9721,10 @@
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
+      <c r="A500" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B500" s="0" t="s">
+      <c r="B500" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -9578,10 +9732,10 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
+      <c r="A501" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B501" s="0" t="s">
+      <c r="B501" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -9589,10 +9743,10 @@
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
+      <c r="A502" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B502" s="0" t="s">
+      <c r="B502" s="1" t="s">
         <v>965</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -9600,10 +9754,10 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
+      <c r="A503" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B503" s="0" t="s">
+      <c r="B503" s="1" t="s">
         <v>967</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -9611,10 +9765,10 @@
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
+      <c r="A504" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B504" s="0" t="s">
+      <c r="B504" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -9622,10 +9776,10 @@
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
+      <c r="A505" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B505" s="0" t="s">
+      <c r="B505" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -9633,10 +9787,10 @@
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
+      <c r="A506" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B506" s="0" t="s">
+      <c r="B506" s="1" t="s">
         <v>973</v>
       </c>
       <c r="C506" s="1" t="s">
@@ -9644,10 +9798,10 @@
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
+      <c r="A507" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B507" s="0" t="s">
+      <c r="B507" s="1" t="s">
         <v>975</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -9655,10 +9809,10 @@
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
+      <c r="A508" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B508" s="0" t="s">
+      <c r="B508" s="1" t="s">
         <v>977</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -9666,10 +9820,10 @@
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
+      <c r="A509" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B509" s="0" t="s">
+      <c r="B509" s="1" t="s">
         <v>979</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -9677,10 +9831,10 @@
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
+      <c r="A510" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B510" s="0" t="s">
+      <c r="B510" s="1" t="s">
         <v>981</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -9688,10 +9842,10 @@
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
+      <c r="A511" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B511" s="0" t="s">
+      <c r="B511" s="1" t="s">
         <v>983</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -9699,10 +9853,10 @@
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
+      <c r="A512" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B512" s="0" t="s">
+      <c r="B512" s="1" t="s">
         <v>985</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -9710,10 +9864,10 @@
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
+      <c r="A513" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B513" s="0" t="s">
+      <c r="B513" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -9721,10 +9875,10 @@
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="0" t="s">
+      <c r="A514" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B514" s="0" t="s">
+      <c r="B514" s="1" t="s">
         <v>989</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -9732,10 +9886,10 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
+      <c r="A515" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B515" s="0" t="s">
+      <c r="B515" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -9743,10 +9897,10 @@
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
+      <c r="A516" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B516" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -9754,10 +9908,10 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
+      <c r="A517" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B517" s="0" t="s">
+      <c r="B517" s="1" t="s">
         <v>995</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -9765,10 +9919,10 @@
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
+      <c r="A518" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B518" s="0" t="s">
+      <c r="B518" s="1" t="s">
         <v>997</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -9776,10 +9930,10 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
+      <c r="A519" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B519" s="0" t="s">
+      <c r="B519" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -9787,10 +9941,10 @@
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
+      <c r="A520" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B520" s="0" t="s">
+      <c r="B520" s="1" t="s">
         <v>957</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -9798,10 +9952,10 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
+      <c r="A521" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B521" s="0" t="s">
+      <c r="B521" s="1" t="s">
         <v>959</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -9809,10 +9963,10 @@
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
+      <c r="A522" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B522" s="0" t="s">
+      <c r="B522" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -9820,10 +9974,10 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
+      <c r="A523" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B523" s="0" t="s">
+      <c r="B523" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -9831,10 +9985,10 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
+      <c r="A524" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B524" s="0" t="s">
+      <c r="B524" s="1" t="s">
         <v>965</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -9842,10 +9996,10 @@
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="0" t="s">
+      <c r="A525" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B525" s="0" t="s">
+      <c r="B525" s="1" t="s">
         <v>967</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -9853,10 +10007,10 @@
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
+      <c r="A526" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B526" s="0" t="s">
+      <c r="B526" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -9864,10 +10018,10 @@
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
+      <c r="A527" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B527" s="0" t="s">
+      <c r="B527" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -9875,10 +10029,10 @@
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="0" t="s">
+      <c r="A528" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B528" s="0" t="s">
+      <c r="B528" s="1" t="s">
         <v>973</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -9886,10 +10040,10 @@
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="0" t="s">
+      <c r="A529" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B529" s="0" t="s">
+      <c r="B529" s="1" t="s">
         <v>975</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -9897,10 +10051,10 @@
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="0" t="s">
+      <c r="A530" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B530" s="0" t="s">
+      <c r="B530" s="1" t="s">
         <v>977</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -9908,10 +10062,10 @@
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="0" t="s">
+      <c r="A531" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B531" s="0" t="s">
+      <c r="B531" s="1" t="s">
         <v>979</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -9919,10 +10073,10 @@
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="0" t="s">
+      <c r="A532" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B532" s="0" t="s">
+      <c r="B532" s="1" t="s">
         <v>981</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -9930,10 +10084,10 @@
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="0" t="s">
+      <c r="A533" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B533" s="0" t="s">
+      <c r="B533" s="1" t="s">
         <v>983</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -9941,10 +10095,10 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="0" t="s">
+      <c r="A534" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B534" s="0" t="s">
+      <c r="B534" s="1" t="s">
         <v>985</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -9952,10 +10106,10 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="0" t="s">
+      <c r="A535" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B535" s="0" t="s">
+      <c r="B535" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -9963,10 +10117,10 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="0" t="s">
+      <c r="A536" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B536" s="0" t="s">
+      <c r="B536" s="1" t="s">
         <v>989</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -9974,10 +10128,10 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+      <c r="A537" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B537" s="0" t="s">
+      <c r="B537" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -9985,10 +10139,10 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="0" t="s">
+      <c r="A538" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B538" s="0" t="s">
+      <c r="B538" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -9996,10 +10150,10 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="0" t="s">
+      <c r="A539" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B539" s="0" t="s">
+      <c r="B539" s="1" t="s">
         <v>995</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -10007,10 +10161,10 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="0" t="s">
+      <c r="A540" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B540" s="0" t="s">
+      <c r="B540" s="1" t="s">
         <v>997</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -10018,10 +10172,10 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="0" t="s">
+      <c r="A541" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B541" s="0" t="s">
+      <c r="B541" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -10029,10 +10183,10 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="0" t="s">
+      <c r="A542" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B542" s="0" t="s">
+      <c r="B542" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -10040,10 +10194,10 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="0" t="s">
+      <c r="A543" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B543" s="0" t="s">
+      <c r="B543" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -10051,10 +10205,10 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="0" t="s">
+      <c r="A544" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B544" s="0" t="s">
+      <c r="B544" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -10062,10 +10216,10 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="0" t="s">
+      <c r="A545" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B545" s="0" t="s">
+      <c r="B545" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -10073,10 +10227,10 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="0" t="s">
+      <c r="A546" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B546" s="0" t="s">
+      <c r="B546" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -10084,10 +10238,10 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="0" t="s">
+      <c r="A547" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B547" s="0" t="s">
+      <c r="B547" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -10095,10 +10249,10 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="0" t="s">
+      <c r="A548" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B548" s="0" t="s">
+      <c r="B548" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -10106,10 +10260,10 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="0" t="s">
+      <c r="A549" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B549" s="0" t="s">
+      <c r="B549" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -10117,10 +10271,10 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="0" t="s">
+      <c r="A550" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B550" s="0" t="s">
+      <c r="B550" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10128,10 +10282,10 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="0" t="s">
+      <c r="A551" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B551" s="0" t="s">
+      <c r="B551" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -10139,10 +10293,10 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="0" t="s">
+      <c r="A552" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B552" s="0" t="s">
+      <c r="B552" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="C552" s="1" t="s">
@@ -10150,10 +10304,10 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="0" t="s">
+      <c r="A553" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B553" s="0" t="s">
+      <c r="B553" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -10161,10 +10315,10 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="0" t="s">
+      <c r="A554" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B554" s="0" t="s">
+      <c r="B554" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C554" s="1" t="s">
@@ -10172,10 +10326,10 @@
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="0" t="s">
+      <c r="A555" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B555" s="0" t="s">
+      <c r="B555" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="C555" s="1" t="s">
@@ -10183,10 +10337,10 @@
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="0" t="s">
+      <c r="A556" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B556" s="0" t="s">
+      <c r="B556" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C556" s="1" t="s">
@@ -10194,10 +10348,10 @@
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B557" s="0" t="s">
+      <c r="B557" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -10205,10 +10359,10 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B558" s="0" t="s">
+      <c r="B558" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="C558" s="1" t="s">
@@ -10216,10 +10370,10 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B559" s="0" t="s">
+      <c r="B559" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C559" s="1" t="s">
@@ -10227,10 +10381,10 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B560" s="0" t="s">
+      <c r="B560" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C560" s="1" t="s">
@@ -10238,10 +10392,10 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B561" s="0" t="s">
+      <c r="B561" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C561" s="1" t="s">
@@ -10249,10 +10403,10 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B562" s="0" t="s">
+      <c r="B562" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C562" s="1" t="s">
@@ -10260,10 +10414,10 @@
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
+      <c r="A563" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B563" s="0" t="s">
+      <c r="B563" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="C563" s="1" t="s">
@@ -10271,10 +10425,10 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B564" s="0" t="s">
+      <c r="B564" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="C564" s="1" t="s">
@@ -10282,10 +10436,10 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
+      <c r="A565" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B565" s="0" t="s">
+      <c r="B565" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C565" s="1" t="s">
@@ -10293,10 +10447,10 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
+      <c r="A566" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B566" s="0" t="s">
+      <c r="B566" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="C566" s="1" t="s">
@@ -10304,10 +10458,10 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="0" t="s">
+      <c r="A567" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B567" s="0" t="s">
+      <c r="B567" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="C567" s="1" t="s">
@@ -10315,10 +10469,10 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B568" s="0" t="s">
+      <c r="B568" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="C568" s="1" t="s">
@@ -10326,10 +10480,10 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B569" s="0" t="s">
+      <c r="B569" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C569" s="1" t="s">
@@ -10337,10 +10491,10 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="0" t="s">
+      <c r="A570" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B570" s="0" t="s">
+      <c r="B570" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="C570" s="1" t="s">
@@ -10348,10 +10502,10 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="0" t="s">
+      <c r="A571" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B571" s="0" t="s">
+      <c r="B571" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="C571" s="1" t="s">
@@ -10359,10 +10513,10 @@
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="0" t="s">
+      <c r="A572" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B572" s="0" t="s">
+      <c r="B572" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C572" s="1" t="s">
@@ -10370,10 +10524,10 @@
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B573" s="0" t="s">
+      <c r="B573" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="C573" s="1" t="s">
@@ -10381,10 +10535,10 @@
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
+      <c r="A574" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B574" s="0" t="s">
+      <c r="B574" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="C574" s="1" t="s">
@@ -10392,10 +10546,10 @@
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="0" t="s">
+      <c r="A575" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B575" s="0" t="s">
+      <c r="B575" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="C575" s="1" t="s">
@@ -10403,10 +10557,10 @@
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="0" t="s">
+      <c r="A576" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B576" s="0" t="s">
+      <c r="B576" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="C576" s="1" t="s">
@@ -10414,10 +10568,10 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="0" t="s">
+      <c r="A577" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B577" s="0" t="s">
+      <c r="B577" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="C577" s="1" t="s">
@@ -10425,10 +10579,10 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="0" t="s">
+      <c r="A578" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B578" s="0" t="s">
+      <c r="B578" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="C578" s="1" t="s">
@@ -10436,10 +10590,10 @@
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="0" t="s">
+      <c r="A579" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B579" s="0" t="s">
+      <c r="B579" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="C579" s="1" t="s">
@@ -10447,10 +10601,10 @@
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="0" t="s">
+      <c r="A580" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B580" s="0" t="s">
+      <c r="B580" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="C580" s="1" t="s">
@@ -10458,10 +10612,10 @@
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
+      <c r="A581" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B581" s="0" t="s">
+      <c r="B581" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C581" s="1" t="s">
@@ -10469,10 +10623,10 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="0" t="s">
+      <c r="A582" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B582" s="0" t="s">
+      <c r="B582" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C582" s="1" t="s">
@@ -10480,10 +10634,10 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B583" s="0" t="s">
+      <c r="B583" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="C583" s="1" t="s">
@@ -10491,10 +10645,10 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B584" s="0" t="s">
+      <c r="B584" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="C584" s="1" t="s">
@@ -10502,10 +10656,10 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B585" s="0" t="s">
+      <c r="B585" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="C585" s="1" t="s">
@@ -10513,10 +10667,10 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
+      <c r="A586" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B586" s="0" t="s">
+      <c r="B586" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="C586" s="1" t="s">
@@ -10524,10 +10678,10 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B587" s="0" t="s">
+      <c r="B587" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="C587" s="1" t="s">
@@ -10535,10 +10689,10 @@
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B588" s="0" t="s">
+      <c r="B588" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -10546,10 +10700,10 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+      <c r="A589" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B589" s="0" t="s">
+      <c r="B589" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="C589" s="1" t="s">
@@ -10557,10 +10711,10 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B590" s="0" t="s">
+      <c r="B590" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="C590" s="1" t="s">
@@ -10568,10 +10722,10 @@
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
+      <c r="A591" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B591" s="0" t="s">
+      <c r="B591" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="C591" s="1" t="s">
@@ -10579,10 +10733,10 @@
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="0" t="s">
+      <c r="A592" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B592" s="0" t="s">
+      <c r="B592" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="C592" s="1" t="s">
@@ -10590,10 +10744,10 @@
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="0" t="s">
+      <c r="A593" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B593" s="0" t="s">
+      <c r="B593" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="C593" s="1" t="s">
@@ -10601,10 +10755,10 @@
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="0" t="s">
+      <c r="A594" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B594" s="0" t="s">
+      <c r="B594" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C594" s="1" t="s">
@@ -10612,10 +10766,10 @@
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="0" t="s">
+      <c r="A595" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B595" s="0" t="s">
+      <c r="B595" s="1" t="s">
         <v>1131</v>
       </c>
       <c r="C595" s="1" t="s">
@@ -10623,10 +10777,10 @@
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="0" t="s">
+      <c r="A596" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B596" s="0" t="s">
+      <c r="B596" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="C596" s="1" t="s">
@@ -10634,10 +10788,10 @@
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="0" t="s">
+      <c r="A597" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B597" s="0" t="s">
+      <c r="B597" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="C597" s="1" t="s">
@@ -10645,10 +10799,10 @@
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="0" t="s">
+      <c r="A598" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B598" s="0" t="s">
+      <c r="B598" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="C598" s="1" t="s">
@@ -10656,10 +10810,10 @@
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="0" t="s">
+      <c r="A599" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B599" s="0" t="s">
+      <c r="B599" s="1" t="s">
         <v>1139</v>
       </c>
       <c r="C599" s="1" t="s">
@@ -10667,10 +10821,10 @@
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="0" t="s">
+      <c r="A600" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B600" s="0" t="s">
+      <c r="B600" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C600" s="1" t="s">
@@ -10678,10 +10832,10 @@
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="A601" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B601" s="0" t="s">
+      <c r="B601" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="C601" s="1" t="s">
@@ -10689,10 +10843,10 @@
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="0" t="s">
+      <c r="A602" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B602" s="0" t="s">
+      <c r="B602" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C602" s="1" t="s">
@@ -10700,10 +10854,10 @@
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="A603" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B603" s="0" t="s">
+      <c r="B603" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="C603" s="1" t="s">
@@ -10711,10 +10865,10 @@
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="0" t="s">
+      <c r="A604" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B604" s="0" t="s">
+      <c r="B604" s="1" t="s">
         <v>1149</v>
       </c>
       <c r="C604" s="1" t="s">
@@ -10722,10 +10876,10 @@
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="A605" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B605" s="0" t="s">
+      <c r="B605" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="C605" s="1" t="s">
@@ -10733,10 +10887,10 @@
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="A606" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B606" s="0" t="s">
+      <c r="B606" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="C606" s="1" t="s">
@@ -10744,10 +10898,10 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
+      <c r="A607" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B607" s="0" t="s">
+      <c r="B607" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="C607" s="1" t="s">
@@ -10755,10 +10909,10 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B608" s="0" t="s">
+      <c r="B608" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C608" s="1" t="s">
@@ -10766,10 +10920,10 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
+      <c r="A609" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B609" s="0" t="s">
+      <c r="B609" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="C609" s="1" t="s">
@@ -10777,10 +10931,10 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C610" s="1" t="s">
@@ -10788,10 +10942,10 @@
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
+      <c r="A611" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B611" s="0" t="s">
+      <c r="B611" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="C611" s="1" t="s">
@@ -10799,10 +10953,10 @@
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="0" t="s">
+      <c r="A612" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B612" s="0" t="s">
+      <c r="B612" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="C612" s="1" t="s">
@@ -10810,10 +10964,10 @@
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
+      <c r="A613" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B613" s="0" t="s">
+      <c r="B613" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="C613" s="1" t="s">
@@ -10821,10 +10975,10 @@
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
+      <c r="A614" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B614" s="0" t="s">
+      <c r="B614" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="C614" s="1" t="s">
@@ -10832,10 +10986,10 @@
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
+      <c r="A615" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B615" s="0" t="s">
+      <c r="B615" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="C615" s="1" t="s">
@@ -10843,10 +10997,10 @@
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
+      <c r="A616" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B616" s="0" t="s">
+      <c r="B616" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="C616" s="1" t="s">
@@ -10854,10 +11008,10 @@
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
+      <c r="A617" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B617" s="0" t="s">
+      <c r="B617" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="C617" s="1" t="s">
@@ -10865,10 +11019,10 @@
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
+      <c r="A618" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B618" s="0" t="s">
+      <c r="B618" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="C618" s="1" t="s">
@@ -10876,10 +11030,10 @@
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
+      <c r="A619" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B619" s="0" t="s">
+      <c r="B619" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C619" s="1" t="s">
@@ -10887,10 +11041,10 @@
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+      <c r="A620" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B620" s="0" t="s">
+      <c r="B620" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="C620" s="1" t="s">
@@ -10898,10 +11052,10 @@
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
+      <c r="A621" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B621" s="0" t="s">
+      <c r="B621" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="C621" s="1" t="s">
@@ -10909,10 +11063,10 @@
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
+      <c r="A622" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B622" s="0" t="s">
+      <c r="B622" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C622" s="1" t="s">
@@ -10920,10 +11074,10 @@
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="0" t="s">
+      <c r="A623" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B623" s="0" t="s">
+      <c r="B623" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="C623" s="1" t="s">
@@ -10931,10 +11085,10 @@
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
+      <c r="A624" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B624" s="0" t="s">
+      <c r="B624" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="C624" s="1" t="s">
@@ -10942,10 +11096,10 @@
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B625" s="0" t="s">
+      <c r="B625" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="C625" s="1" t="s">
@@ -10953,10 +11107,10 @@
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B626" s="0" t="s">
+      <c r="B626" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="C626" s="1" t="s">
@@ -10964,10 +11118,10 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B627" s="0" t="s">
+      <c r="B627" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C627" s="1" t="s">
@@ -10975,10 +11129,10 @@
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="0" t="s">
+      <c r="A628" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B628" s="0" t="s">
+      <c r="B628" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C628" s="1" t="s">
@@ -10986,10 +11140,10 @@
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B629" s="0" t="s">
+      <c r="B629" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C629" s="1" t="s">
@@ -10997,10 +11151,10 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B630" s="0" t="s">
+      <c r="B630" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="C630" s="1" t="s">
@@ -11008,10 +11162,10 @@
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
+      <c r="A631" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B631" s="0" t="s">
+      <c r="B631" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C631" s="1" t="s">
@@ -11019,10 +11173,10 @@
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
+      <c r="A632" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B632" s="0" t="s">
+      <c r="B632" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C632" s="1" t="s">
@@ -11030,10 +11184,10 @@
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
+      <c r="A633" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B633" s="0" t="s">
+      <c r="B633" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="C633" s="1" t="s">
@@ -11041,10 +11195,10 @@
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="A634" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B634" s="0" t="s">
+      <c r="B634" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="C634" s="1" t="s">
@@ -11052,10 +11206,10 @@
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
+      <c r="A635" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B635" s="0" t="s">
+      <c r="B635" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="C635" s="1" t="s">
@@ -11063,10 +11217,10 @@
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
+      <c r="A636" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B636" s="0" t="s">
+      <c r="B636" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="C636" s="1" t="s">
@@ -11074,10 +11228,10 @@
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="0" t="s">
+      <c r="A637" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B637" s="0" t="s">
+      <c r="B637" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C637" s="1" t="s">
@@ -11085,10 +11239,10 @@
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
+      <c r="A638" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B638" s="0" t="s">
+      <c r="B638" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C638" s="1" t="s">
@@ -11096,10 +11250,10 @@
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="0" t="s">
+      <c r="A639" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B639" s="0" t="s">
+      <c r="B639" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C639" s="1" t="s">
@@ -11107,10 +11261,10 @@
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
+      <c r="A640" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B640" s="0" t="s">
+      <c r="B640" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="C640" s="1" t="s">
@@ -11118,10 +11272,10 @@
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="0" t="s">
+      <c r="A641" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B641" s="0" t="s">
+      <c r="B641" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="C641" s="1" t="s">
@@ -11129,10 +11283,10 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
+      <c r="A642" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B642" s="0" t="s">
+      <c r="B642" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="C642" s="1" t="s">
@@ -11140,10 +11294,10 @@
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="0" t="s">
+      <c r="A643" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B643" s="0" t="s">
+      <c r="B643" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="C643" s="1" t="s">
@@ -11151,10 +11305,10 @@
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="0" t="s">
+      <c r="A644" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B644" s="0" t="s">
+      <c r="B644" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C644" s="1" t="s">
@@ -11162,10 +11316,10 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
+      <c r="A645" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B645" s="0" t="s">
+      <c r="B645" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="C645" s="1" t="s">
@@ -11173,10 +11327,10 @@
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
+      <c r="A646" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B646" s="0" t="s">
+      <c r="B646" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="C646" s="1" t="s">
@@ -11184,10 +11338,10 @@
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
+      <c r="A647" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B647" s="0" t="s">
+      <c r="B647" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="C647" s="1" t="s">
@@ -11195,10 +11349,10 @@
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="0" t="s">
+      <c r="A648" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B648" s="0" t="s">
+      <c r="B648" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C648" s="1" t="s">
@@ -11206,10 +11360,10 @@
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+      <c r="A649" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B649" s="0" t="s">
+      <c r="B649" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="C649" s="1" t="s">
@@ -11217,10 +11371,10 @@
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="0" t="s">
+      <c r="A650" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B650" s="0" t="s">
+      <c r="B650" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="C650" s="1" t="s">
@@ -11228,10 +11382,10 @@
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
+      <c r="A651" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B651" s="0" t="s">
+      <c r="B651" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="C651" s="1" t="s">
@@ -11239,10 +11393,10 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="0" t="s">
+      <c r="A652" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B652" s="0" t="s">
+      <c r="B652" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="C652" s="1" t="s">
@@ -11250,10 +11404,10 @@
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="0" t="s">
+      <c r="A653" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B653" s="0" t="s">
+      <c r="B653" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="C653" s="1" t="s">
@@ -11261,10 +11415,10 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
+      <c r="A654" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B654" s="0" t="s">
+      <c r="B654" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="C654" s="1" t="s">
@@ -11272,14 +11426,348 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
+      <c r="A655" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B655" s="0" t="s">
+      <c r="B655" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>1121</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>

--- a/export/dicionario.xlsx
+++ b/export/dicionario.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="IBGE" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="PROADESS" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="tmax, tmin, prec, rh" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Clima" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -3853,75 +3853,19 @@
     <t xml:space="preserve">tmin_normal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Normal climatológica da temperatura mínima média (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">1961-1990)</t>
-    </r>
+    <t xml:space="preserve">Normal climatológica da temperatura mínima média (1961-1990)</t>
   </si>
   <si>
     <t xml:space="preserve">prec_normal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Normal climatológica da precipitação </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(1961-1990)</t>
-    </r>
+    <t xml:space="preserve">Normal climatológica da precipitação (1961-1990)</t>
   </si>
   <si>
     <t xml:space="preserve">rh_normal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Normal climatológica da u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">midade relativa do ar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1961-1990)</t>
-    </r>
+    <t xml:space="preserve">Normal climatológica da umidade relativa do ar  (1961-1990)</t>
   </si>
 </sst>
 </file>
@@ -3931,7 +3875,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3953,18 +3897,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4001,7 +3946,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4010,7 +3955,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4140,7 +4093,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11454,8 +11407,8 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11560,12 +11513,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>1259</v>
       </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -11601,7 +11555,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -11763,7 +11717,7 @@
       <c r="A17" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="C17" s="1" t="s">

--- a/export/dicionario.xlsx
+++ b/export/dicionario.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="IBGE" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="PROADESS" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Clima" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1281">
   <si>
     <t xml:space="preserve">Variável</t>
   </si>
@@ -3777,6 +3779,93 @@
   </si>
   <si>
     <t xml:space="preserve">Pessoas deficientes residentes de 2 anos ou mais de idade, total, total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de enfermeiros, por 100 mil habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de médicos, por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de leitos hospitalares (excluídos os psiquiátricos), por 1.000 habitantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de estabelecimentos hospitalares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densidade demográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proadess006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual de internações por Condições Sensíveis à Atenção Primária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura máxima média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observatório de Clima e Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura mínima média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precipitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umidade Relativa do ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmax_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal climatológica da temperatura máxima média (1961-1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmin_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal climatológica da temperatura mínima média (1961-1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prec_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal climatológica da precipitação (1961-1990)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal climatológica da umidade relativa do ar  (1961-1990)</t>
   </si>
 </sst>
 </file>
@@ -3809,12 +3898,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3851,12 +3946,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3986,7 +4093,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4106,15 +4213,15 @@
   </sheetPr>
   <dimension ref="A1:C655"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="85.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4246,7 +4353,7 @@
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4257,7 +4364,7 @@
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4268,7 +4375,7 @@
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4279,7 +4386,7 @@
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4290,7 +4397,7 @@
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4301,7 +4408,7 @@
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4312,7 +4419,7 @@
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4323,7 +4430,7 @@
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4334,7 +4441,7 @@
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4345,7 +4452,7 @@
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4356,7 +4463,7 @@
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4367,7 +4474,7 @@
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4378,7 +4485,7 @@
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4389,7 +4496,7 @@
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4400,7 +4507,7 @@
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4411,7 +4518,7 @@
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4422,7 +4529,7 @@
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4433,7 +4540,7 @@
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4444,7 +4551,7 @@
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4455,7 +4562,7 @@
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4466,7 +4573,7 @@
       <c r="A36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4477,7 +4584,7 @@
       <c r="A37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4488,7 +4595,7 @@
       <c r="A38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4499,7 +4606,7 @@
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4510,7 +4617,7 @@
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4521,7 +4628,7 @@
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4532,7 +4639,7 @@
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4543,7 +4650,7 @@
       <c r="A43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4554,7 +4661,7 @@
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4565,7 +4672,7 @@
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4576,7 +4683,7 @@
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4587,7 +4694,7 @@
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4598,7 +4705,7 @@
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4609,7 +4716,7 @@
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4620,7 +4727,7 @@
       <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4631,7 +4738,7 @@
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4642,7 +4749,7 @@
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4653,7 +4760,7 @@
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4664,7 +4771,7 @@
       <c r="A54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4675,7 +4782,7 @@
       <c r="A55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4686,7 +4793,7 @@
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4697,7 +4804,7 @@
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4708,7 +4815,7 @@
       <c r="A58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4719,7 +4826,7 @@
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -4730,7 +4837,7 @@
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4741,7 +4848,7 @@
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4752,7 +4859,7 @@
       <c r="A62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -4763,7 +4870,7 @@
       <c r="A63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -4774,7 +4881,7 @@
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -4785,7 +4892,7 @@
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -4796,7 +4903,7 @@
       <c r="A66" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -4807,7 +4914,7 @@
       <c r="A67" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -4818,7 +4925,7 @@
       <c r="A68" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -4829,7 +4936,7 @@
       <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -4840,7 +4947,7 @@
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -4851,7 +4958,7 @@
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4862,7 +4969,7 @@
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4873,7 +4980,7 @@
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4884,7 +4991,7 @@
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -4895,7 +5002,7 @@
       <c r="A75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -4906,7 +5013,7 @@
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4917,7 +5024,7 @@
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4928,7 +5035,7 @@
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4939,7 +5046,7 @@
       <c r="A79" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4947,10 +5054,10 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4958,10 +5065,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4969,10 +5076,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4980,10 +5087,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4991,10 +5098,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5002,10 +5109,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5013,10 +5120,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5024,10 +5131,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5035,10 +5142,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5046,10 +5153,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5057,10 +5164,10 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5068,10 +5175,10 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5079,10 +5186,10 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -5090,10 +5197,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -5101,10 +5208,10 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -5112,10 +5219,10 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -5123,10 +5230,10 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -5134,10 +5241,10 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -5145,10 +5252,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -5156,10 +5263,10 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -5167,10 +5274,10 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -5178,10 +5285,10 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -5189,10 +5296,10 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -5200,10 +5307,10 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -5211,10 +5318,10 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -5222,10 +5329,10 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -5233,10 +5340,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5244,10 +5351,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -5255,10 +5362,10 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5266,10 +5373,10 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5277,10 +5384,10 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -5288,10 +5395,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -5299,10 +5406,10 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5310,10 +5417,10 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -5321,10 +5428,10 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -5332,10 +5439,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -5343,10 +5450,10 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -5354,10 +5461,10 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5365,10 +5472,10 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>241</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -5376,10 +5483,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -5387,10 +5494,10 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -5398,10 +5505,10 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -5409,10 +5516,10 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -5420,10 +5527,10 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -5431,10 +5538,10 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>253</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -5442,10 +5549,10 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -5453,10 +5560,10 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -5464,10 +5571,10 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -5475,10 +5582,10 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -5486,10 +5593,10 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -5497,10 +5604,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -5508,10 +5615,10 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -5519,10 +5626,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -5530,10 +5637,10 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -5541,10 +5648,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -5552,10 +5659,10 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -5563,10 +5670,10 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -5574,10 +5681,10 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>279</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -5585,10 +5692,10 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>281</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -5596,10 +5703,10 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>283</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -5607,10 +5714,10 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>285</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -5618,10 +5725,10 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -5629,10 +5736,10 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -5640,10 +5747,10 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>291</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -5651,10 +5758,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>293</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -5662,10 +5769,10 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>295</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -5673,10 +5780,10 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -5684,10 +5791,10 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -5695,10 +5802,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>301</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -5706,10 +5813,10 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>303</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -5717,10 +5824,10 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -5728,10 +5835,10 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -5739,10 +5846,10 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>309</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -5750,10 +5857,10 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>311</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -5761,10 +5868,10 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>313</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -5772,10 +5879,10 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>315</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -5783,10 +5890,10 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -5794,10 +5901,10 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -5805,10 +5912,10 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -5816,10 +5923,10 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -5827,10 +5934,10 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -5838,10 +5945,10 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -5849,10 +5956,10 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -5860,10 +5967,10 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -5871,10 +5978,10 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B164" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -5882,10 +5989,10 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -5893,10 +6000,10 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B166" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -5904,10 +6011,10 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -5915,10 +6022,10 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B168" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C168" s="1" t="s">
@@ -5926,10 +6033,10 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C169" s="1" t="s">
@@ -5937,10 +6044,10 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C170" s="1" t="s">
@@ -5948,10 +6055,10 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B171" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -5959,10 +6066,10 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B172" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -5970,10 +6077,10 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -5981,10 +6088,10 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B174" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -5992,10 +6099,10 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -6003,10 +6110,10 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B176" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -6014,10 +6121,10 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -6025,10 +6132,10 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -6036,10 +6143,10 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -6047,10 +6154,10 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -6058,10 +6165,10 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B181" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -6069,10 +6176,10 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -6080,10 +6187,10 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -6091,10 +6198,10 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B184" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -6102,10 +6209,10 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
+      <c r="A185" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -6113,10 +6220,10 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
+      <c r="A186" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -6124,10 +6231,10 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
+      <c r="A187" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B187" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -6135,10 +6242,10 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
+      <c r="A188" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -6146,10 +6253,10 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
+      <c r="A189" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -6157,10 +6264,10 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
+      <c r="A190" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -6168,10 +6275,10 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
+      <c r="A191" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B191" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -6179,10 +6286,10 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
+      <c r="A192" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B192" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -6190,10 +6297,10 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
+      <c r="A193" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -6201,10 +6308,10 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
+      <c r="A194" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B194" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -6212,10 +6319,10 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="A195" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -6223,10 +6330,10 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="A196" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B196" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -6234,10 +6341,10 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="A197" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B197" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -6245,10 +6352,10 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="A198" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -6256,10 +6363,10 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="A199" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B199" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -6267,10 +6374,10 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="A200" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -6278,10 +6385,10 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="A201" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -6289,10 +6396,10 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="A202" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B202" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -6300,10 +6407,10 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="A203" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B203" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -6311,10 +6418,10 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="A204" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B204" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -6322,10 +6429,10 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="A205" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B205" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -6333,10 +6440,10 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="A206" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B206" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -6344,10 +6451,10 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="A207" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B207" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -6355,10 +6462,10 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="A208" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -6366,10 +6473,10 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="A209" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -6377,10 +6484,10 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="A210" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B210" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -6388,10 +6495,10 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="A211" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B211" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -6399,10 +6506,10 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="A212" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -6410,10 +6517,10 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="A213" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B213" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -6421,10 +6528,10 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="A214" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -6432,10 +6539,10 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="A215" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -6443,10 +6550,10 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="A216" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B216" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -6454,10 +6561,10 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="A217" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B217" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -6465,10 +6572,10 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="A218" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -6476,10 +6583,10 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="A219" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B219" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -6487,10 +6594,10 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="A220" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B220" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -6498,10 +6605,10 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="A221" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B221" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -6509,10 +6616,10 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="A222" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B222" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -6520,10 +6627,10 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="A223" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B223" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -6531,10 +6638,10 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="A224" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -6542,10 +6649,10 @@
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
+      <c r="A225" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -6553,10 +6660,10 @@
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
+      <c r="A226" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B226" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -6564,10 +6671,10 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
+      <c r="A227" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B227" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -6575,10 +6682,10 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B228" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -6586,10 +6693,10 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="A229" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B229" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -6597,10 +6704,10 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
+      <c r="A230" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B230" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -6608,10 +6715,10 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
+      <c r="A231" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B231" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -6619,10 +6726,10 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
+      <c r="A232" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B232" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -6630,10 +6737,10 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
+      <c r="A233" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B233" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -6641,10 +6748,10 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
+      <c r="A234" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B234" s="1" t="s">
         <v>451</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -6652,10 +6759,10 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
+      <c r="A235" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B235" s="1" t="s">
         <v>453</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -6663,10 +6770,10 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
+      <c r="A236" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B236" s="1" t="s">
         <v>455</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -6674,10 +6781,10 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
+      <c r="A237" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B237" s="1" t="s">
         <v>457</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -6685,10 +6792,10 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
+      <c r="A238" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B238" s="1" t="s">
         <v>459</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -6696,10 +6803,10 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
+      <c r="A239" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B239" s="1" t="s">
         <v>461</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -6707,10 +6814,10 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
+      <c r="A240" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B240" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -6718,10 +6825,10 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
+      <c r="A241" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B241" s="1" t="s">
         <v>465</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -6729,10 +6836,10 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
+      <c r="A242" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B242" s="1" t="s">
         <v>467</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -6740,10 +6847,10 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
+      <c r="A243" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B243" s="1" t="s">
         <v>469</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -6751,10 +6858,10 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
+      <c r="A244" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B244" s="1" t="s">
         <v>471</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -6762,10 +6869,10 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
+      <c r="A245" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B245" s="1" t="s">
         <v>473</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -6773,10 +6880,10 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
+      <c r="A246" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B246" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -6784,10 +6891,10 @@
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
+      <c r="A247" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B247" s="1" t="s">
         <v>477</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -6795,10 +6902,10 @@
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
+      <c r="A248" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B248" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -6806,10 +6913,10 @@
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
+      <c r="A249" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B249" s="0" t="s">
+      <c r="B249" s="1" t="s">
         <v>481</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -6817,10 +6924,10 @@
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
+      <c r="A250" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B250" s="0" t="s">
+      <c r="B250" s="1" t="s">
         <v>483</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -6828,10 +6935,10 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
+      <c r="A251" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="1" t="s">
         <v>485</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -6839,10 +6946,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
+      <c r="A252" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" s="1" t="s">
         <v>487</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -6850,10 +6957,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
+      <c r="A253" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" s="1" t="s">
         <v>489</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -6861,10 +6968,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
+      <c r="A254" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" s="1" t="s">
         <v>491</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -6872,10 +6979,10 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
+      <c r="A255" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" s="1" t="s">
         <v>493</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -6883,10 +6990,10 @@
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
+      <c r="A256" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" s="1" t="s">
         <v>495</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -6894,10 +7001,10 @@
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
+      <c r="A257" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" s="1" t="s">
         <v>497</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -6905,10 +7012,10 @@
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
+      <c r="A258" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B258" s="0" t="s">
+      <c r="B258" s="1" t="s">
         <v>499</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -6916,10 +7023,10 @@
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
+      <c r="A259" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B259" s="0" t="s">
+      <c r="B259" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -6927,10 +7034,10 @@
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
+      <c r="A260" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B260" s="0" t="s">
+      <c r="B260" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -6938,10 +7045,10 @@
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
+      <c r="A261" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="1" t="s">
         <v>505</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -6949,10 +7056,10 @@
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
+      <c r="A262" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B262" s="0" t="s">
+      <c r="B262" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -6960,10 +7067,10 @@
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
+      <c r="A263" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="1" t="s">
         <v>509</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -6971,10 +7078,10 @@
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
+      <c r="A264" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B264" s="0" t="s">
+      <c r="B264" s="1" t="s">
         <v>511</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -6982,10 +7089,10 @@
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
+      <c r="A265" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B265" s="0" t="s">
+      <c r="B265" s="1" t="s">
         <v>513</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -6993,10 +7100,10 @@
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
+      <c r="A266" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="1" t="s">
         <v>515</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -7004,10 +7111,10 @@
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
+      <c r="A267" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B267" s="0" t="s">
+      <c r="B267" s="1" t="s">
         <v>517</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -7015,10 +7122,10 @@
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
+      <c r="A268" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B268" s="0" t="s">
+      <c r="B268" s="1" t="s">
         <v>519</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -7026,10 +7133,10 @@
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
+      <c r="A269" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B269" s="0" t="s">
+      <c r="B269" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -7037,10 +7144,10 @@
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
+      <c r="A270" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B270" s="0" t="s">
+      <c r="B270" s="1" t="s">
         <v>523</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -7048,10 +7155,10 @@
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
+      <c r="A271" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B271" s="0" t="s">
+      <c r="B271" s="1" t="s">
         <v>525</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -7059,10 +7166,10 @@
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
+      <c r="A272" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B272" s="0" t="s">
+      <c r="B272" s="1" t="s">
         <v>527</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -7070,10 +7177,10 @@
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="0" t="s">
+      <c r="A273" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B273" s="0" t="s">
+      <c r="B273" s="1" t="s">
         <v>529</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -7081,10 +7188,10 @@
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="0" t="s">
+      <c r="A274" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="1" t="s">
         <v>531</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -7092,10 +7199,10 @@
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="0" t="s">
+      <c r="A275" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B275" s="0" t="s">
+      <c r="B275" s="1" t="s">
         <v>533</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -7103,10 +7210,10 @@
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="0" t="s">
+      <c r="A276" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B276" s="0" t="s">
+      <c r="B276" s="1" t="s">
         <v>535</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7114,10 +7221,10 @@
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="0" t="s">
+      <c r="A277" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="1" t="s">
         <v>537</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -7125,10 +7232,10 @@
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="0" t="s">
+      <c r="A278" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B278" s="0" t="s">
+      <c r="B278" s="1" t="s">
         <v>539</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7136,10 +7243,10 @@
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="0" t="s">
+      <c r="A279" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="1" t="s">
         <v>541</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -7147,10 +7254,10 @@
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="0" t="s">
+      <c r="A280" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B280" s="0" t="s">
+      <c r="B280" s="1" t="s">
         <v>543</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7158,10 +7265,10 @@
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="0" t="s">
+      <c r="A281" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B281" s="0" t="s">
+      <c r="B281" s="1" t="s">
         <v>545</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -7169,10 +7276,10 @@
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="0" t="s">
+      <c r="A282" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B282" s="0" t="s">
+      <c r="B282" s="1" t="s">
         <v>547</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7180,10 +7287,10 @@
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="0" t="s">
+      <c r="A283" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B283" s="0" t="s">
+      <c r="B283" s="1" t="s">
         <v>549</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -7191,10 +7298,10 @@
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="0" t="s">
+      <c r="A284" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B284" s="0" t="s">
+      <c r="B284" s="1" t="s">
         <v>551</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -7202,10 +7309,10 @@
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="0" t="s">
+      <c r="A285" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B285" s="0" t="s">
+      <c r="B285" s="1" t="s">
         <v>553</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -7213,10 +7320,10 @@
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="0" t="s">
+      <c r="A286" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B286" s="0" t="s">
+      <c r="B286" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -7224,10 +7331,10 @@
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="0" t="s">
+      <c r="A287" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B287" s="0" t="s">
+      <c r="B287" s="1" t="s">
         <v>557</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -7235,10 +7342,10 @@
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="A288" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B288" s="0" t="s">
+      <c r="B288" s="1" t="s">
         <v>559</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -7246,10 +7353,10 @@
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="0" t="s">
+      <c r="A289" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="1" t="s">
         <v>561</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -7257,10 +7364,10 @@
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="0" t="s">
+      <c r="A290" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B290" s="0" t="s">
+      <c r="B290" s="1" t="s">
         <v>563</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -7268,10 +7375,10 @@
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
+      <c r="A291" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B291" s="0" t="s">
+      <c r="B291" s="1" t="s">
         <v>565</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -7279,10 +7386,10 @@
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
+      <c r="A292" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B292" s="0" t="s">
+      <c r="B292" s="1" t="s">
         <v>567</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -7290,10 +7397,10 @@
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
+      <c r="A293" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B293" s="0" t="s">
+      <c r="B293" s="1" t="s">
         <v>569</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -7301,10 +7408,10 @@
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
+      <c r="A294" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B294" s="0" t="s">
+      <c r="B294" s="1" t="s">
         <v>571</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -7312,10 +7419,10 @@
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
+      <c r="A295" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B295" s="0" t="s">
+      <c r="B295" s="1" t="s">
         <v>573</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -7323,10 +7430,10 @@
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
+      <c r="A296" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="B296" s="1" t="s">
         <v>575</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -7334,10 +7441,10 @@
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
+      <c r="A297" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="1" t="s">
         <v>577</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -7345,10 +7452,10 @@
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
+      <c r="A298" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B298" s="0" t="s">
+      <c r="B298" s="1" t="s">
         <v>579</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -7356,10 +7463,10 @@
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
+      <c r="A299" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B299" s="0" t="s">
+      <c r="B299" s="1" t="s">
         <v>581</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -7367,10 +7474,10 @@
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
+      <c r="A300" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B300" s="0" t="s">
+      <c r="B300" s="1" t="s">
         <v>583</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -7378,10 +7485,10 @@
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+      <c r="A301" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="1" t="s">
         <v>585</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -7389,10 +7496,10 @@
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
+      <c r="A302" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B302" s="0" t="s">
+      <c r="B302" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -7400,10 +7507,10 @@
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
+      <c r="A303" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B303" s="0" t="s">
+      <c r="B303" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -7411,10 +7518,10 @@
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="0" t="s">
+      <c r="A304" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B304" s="0" t="s">
+      <c r="B304" s="1" t="s">
         <v>591</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -7422,10 +7529,10 @@
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="0" t="s">
+      <c r="A305" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B305" s="0" t="s">
+      <c r="B305" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -7433,10 +7540,10 @@
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="0" t="s">
+      <c r="A306" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B306" s="0" t="s">
+      <c r="B306" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -7444,10 +7551,10 @@
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="0" t="s">
+      <c r="A307" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="B307" s="1" t="s">
         <v>597</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -7455,10 +7562,10 @@
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="0" t="s">
+      <c r="A308" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B308" s="0" t="s">
+      <c r="B308" s="1" t="s">
         <v>599</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -7466,10 +7573,10 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="0" t="s">
+      <c r="A309" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="B309" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -7477,10 +7584,10 @@
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="0" t="s">
+      <c r="A310" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B310" s="0" t="s">
+      <c r="B310" s="1" t="s">
         <v>603</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -7488,10 +7595,10 @@
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="0" t="s">
+      <c r="A311" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B311" s="0" t="s">
+      <c r="B311" s="1" t="s">
         <v>605</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -7499,10 +7606,10 @@
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="0" t="s">
+      <c r="A312" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B312" s="0" t="s">
+      <c r="B312" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -7510,10 +7617,10 @@
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="0" t="s">
+      <c r="A313" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B313" s="0" t="s">
+      <c r="B313" s="1" t="s">
         <v>609</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -7521,10 +7628,10 @@
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
+      <c r="A314" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B314" s="0" t="s">
+      <c r="B314" s="1" t="s">
         <v>611</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -7532,10 +7639,10 @@
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="0" t="s">
+      <c r="A315" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="1" t="s">
         <v>613</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -7543,10 +7650,10 @@
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="0" t="s">
+      <c r="A316" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B316" s="0" t="s">
+      <c r="B316" s="1" t="s">
         <v>615</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -7554,10 +7661,10 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="0" t="s">
+      <c r="A317" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B317" s="0" t="s">
+      <c r="B317" s="1" t="s">
         <v>617</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -7565,10 +7672,10 @@
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="0" t="s">
+      <c r="A318" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B318" s="0" t="s">
+      <c r="B318" s="1" t="s">
         <v>619</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -7576,10 +7683,10 @@
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="0" t="s">
+      <c r="A319" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="1" t="s">
         <v>621</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -7587,10 +7694,10 @@
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="0" t="s">
+      <c r="A320" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B320" s="0" t="s">
+      <c r="B320" s="1" t="s">
         <v>623</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -7598,10 +7705,10 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="0" t="s">
+      <c r="A321" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B321" s="0" t="s">
+      <c r="B321" s="1" t="s">
         <v>625</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -7609,10 +7716,10 @@
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="0" t="s">
+      <c r="A322" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B322" s="0" t="s">
+      <c r="B322" s="1" t="s">
         <v>627</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -7620,10 +7727,10 @@
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="0" t="s">
+      <c r="A323" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B323" s="0" t="s">
+      <c r="B323" s="1" t="s">
         <v>629</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -7631,10 +7738,10 @@
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="0" t="s">
+      <c r="A324" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B324" s="0" t="s">
+      <c r="B324" s="1" t="s">
         <v>631</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -7642,10 +7749,10 @@
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="0" t="s">
+      <c r="A325" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="1" t="s">
         <v>633</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -7653,10 +7760,10 @@
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="0" t="s">
+      <c r="A326" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="1" t="s">
         <v>635</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -7664,10 +7771,10 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="0" t="s">
+      <c r="A327" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="1" t="s">
         <v>637</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -7675,10 +7782,10 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="0" t="s">
+      <c r="A328" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B328" s="0" t="s">
+      <c r="B328" s="1" t="s">
         <v>639</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -7686,10 +7793,10 @@
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="0" t="s">
+      <c r="A329" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B329" s="0" t="s">
+      <c r="B329" s="1" t="s">
         <v>641</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -7697,10 +7804,10 @@
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="0" t="s">
+      <c r="A330" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B330" s="0" t="s">
+      <c r="B330" s="1" t="s">
         <v>643</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -7708,10 +7815,10 @@
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="0" t="s">
+      <c r="A331" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="1" t="s">
         <v>645</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -7719,10 +7826,10 @@
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="0" t="s">
+      <c r="A332" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B332" s="0" t="s">
+      <c r="B332" s="1" t="s">
         <v>647</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -7730,10 +7837,10 @@
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="0" t="s">
+      <c r="A333" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B333" s="0" t="s">
+      <c r="B333" s="1" t="s">
         <v>649</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -7741,10 +7848,10 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="0" t="s">
+      <c r="A334" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B334" s="0" t="s">
+      <c r="B334" s="1" t="s">
         <v>651</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -7752,10 +7859,10 @@
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="0" t="s">
+      <c r="A335" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B335" s="0" t="s">
+      <c r="B335" s="1" t="s">
         <v>653</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -7763,10 +7870,10 @@
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="0" t="s">
+      <c r="A336" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B336" s="0" t="s">
+      <c r="B336" s="1" t="s">
         <v>655</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -7774,10 +7881,10 @@
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="0" t="s">
+      <c r="A337" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B337" s="0" t="s">
+      <c r="B337" s="1" t="s">
         <v>657</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -7785,10 +7892,10 @@
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="0" t="s">
+      <c r="A338" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="1" t="s">
         <v>659</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -7796,10 +7903,10 @@
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
+      <c r="A339" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B339" s="0" t="s">
+      <c r="B339" s="1" t="s">
         <v>661</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -7807,10 +7914,10 @@
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="0" t="s">
+      <c r="A340" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="1" t="s">
         <v>663</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -7818,10 +7925,10 @@
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="0" t="s">
+      <c r="A341" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="1" t="s">
         <v>665</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -7829,10 +7936,10 @@
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="0" t="s">
+      <c r="A342" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="1" t="s">
         <v>667</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -7840,10 +7947,10 @@
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="0" t="s">
+      <c r="A343" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B343" s="0" t="s">
+      <c r="B343" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -7851,10 +7958,10 @@
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="0" t="s">
+      <c r="A344" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B344" s="0" t="s">
+      <c r="B344" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -7862,10 +7969,10 @@
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="0" t="s">
+      <c r="A345" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B345" s="0" t="s">
+      <c r="B345" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -7873,10 +7980,10 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="0" t="s">
+      <c r="A346" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B346" s="0" t="s">
+      <c r="B346" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -7884,10 +7991,10 @@
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="0" t="s">
+      <c r="A347" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B347" s="0" t="s">
+      <c r="B347" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -7895,10 +8002,10 @@
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="0" t="s">
+      <c r="A348" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B348" s="0" t="s">
+      <c r="B348" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -7906,10 +8013,10 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="0" t="s">
+      <c r="A349" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B349" s="0" t="s">
+      <c r="B349" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -7917,10 +8024,10 @@
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="0" t="s">
+      <c r="A350" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B350" s="0" t="s">
+      <c r="B350" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -7928,10 +8035,10 @@
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="0" t="s">
+      <c r="A351" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -7939,10 +8046,10 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="0" t="s">
+      <c r="A352" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B352" s="0" t="s">
+      <c r="B352" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -7950,10 +8057,10 @@
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="0" t="s">
+      <c r="A353" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B353" s="0" t="s">
+      <c r="B353" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -7961,10 +8068,10 @@
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="0" t="s">
+      <c r="A354" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B354" s="0" t="s">
+      <c r="B354" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -7972,10 +8079,10 @@
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="0" t="s">
+      <c r="A355" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -7983,10 +8090,10 @@
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="0" t="s">
+      <c r="A356" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B356" s="0" t="s">
+      <c r="B356" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -7994,10 +8101,10 @@
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="0" t="s">
+      <c r="A357" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B357" s="0" t="s">
+      <c r="B357" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -8005,10 +8112,10 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="0" t="s">
+      <c r="A358" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B358" s="0" t="s">
+      <c r="B358" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -8016,10 +8123,10 @@
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="0" t="s">
+      <c r="A359" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B359" s="0" t="s">
+      <c r="B359" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -8027,10 +8134,10 @@
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
+      <c r="A360" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B360" s="0" t="s">
+      <c r="B360" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -8038,10 +8145,10 @@
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="0" t="s">
+      <c r="A361" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B361" s="0" t="s">
+      <c r="B361" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -8049,10 +8156,10 @@
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="0" t="s">
+      <c r="A362" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B362" s="0" t="s">
+      <c r="B362" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -8060,10 +8167,10 @@
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="0" t="s">
+      <c r="A363" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -8071,10 +8178,10 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
+      <c r="A364" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B364" s="0" t="s">
+      <c r="B364" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C364" s="1" t="s">
@@ -8082,10 +8189,10 @@
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="0" t="s">
+      <c r="A365" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B365" s="0" t="s">
+      <c r="B365" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -8093,10 +8200,10 @@
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="0" t="s">
+      <c r="A366" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B366" s="0" t="s">
+      <c r="B366" s="1" t="s">
         <v>671</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -8104,10 +8211,10 @@
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="0" t="s">
+      <c r="A367" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="1" t="s">
         <v>673</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -8115,10 +8222,10 @@
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="0" t="s">
+      <c r="A368" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="1" t="s">
         <v>675</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -8126,10 +8233,10 @@
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="0" t="s">
+      <c r="A369" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="1" t="s">
         <v>677</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -8137,10 +8244,10 @@
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="0" t="s">
+      <c r="A370" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B370" s="0" t="s">
+      <c r="B370" s="1" t="s">
         <v>679</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -8148,10 +8255,10 @@
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="0" t="s">
+      <c r="A371" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B371" s="0" t="s">
+      <c r="B371" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -8159,10 +8266,10 @@
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
+      <c r="A372" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B372" s="0" t="s">
+      <c r="B372" s="1" t="s">
         <v>683</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -8170,10 +8277,10 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="0" t="s">
+      <c r="A373" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B373" s="0" t="s">
+      <c r="B373" s="1" t="s">
         <v>685</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -8181,10 +8288,10 @@
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
+      <c r="A374" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B374" s="0" t="s">
+      <c r="B374" s="1" t="s">
         <v>687</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -8192,10 +8299,10 @@
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="0" t="s">
+      <c r="A375" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B375" s="0" t="s">
+      <c r="B375" s="1" t="s">
         <v>689</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -8203,10 +8310,10 @@
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+      <c r="A376" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B376" s="0" t="s">
+      <c r="B376" s="1" t="s">
         <v>691</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -8214,10 +8321,10 @@
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="0" t="s">
+      <c r="A377" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B377" s="0" t="s">
+      <c r="B377" s="1" t="s">
         <v>693</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -8225,10 +8332,10 @@
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="0" t="s">
+      <c r="A378" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B378" s="0" t="s">
+      <c r="B378" s="1" t="s">
         <v>695</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -8236,10 +8343,10 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
+      <c r="A379" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="B379" s="0" t="s">
+      <c r="B379" s="1" t="s">
         <v>697</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -8247,10 +8354,10 @@
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="0" t="s">
+      <c r="A380" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="B380" s="1" t="s">
         <v>699</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -8258,10 +8365,10 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="0" t="s">
+      <c r="A381" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B381" s="0" t="s">
+      <c r="B381" s="1" t="s">
         <v>701</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -8269,10 +8376,10 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
+      <c r="A382" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B382" s="0" t="s">
+      <c r="B382" s="1" t="s">
         <v>703</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -8280,10 +8387,10 @@
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="0" t="s">
+      <c r="A383" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="1" t="s">
         <v>705</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -8291,10 +8398,10 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="0" t="s">
+      <c r="A384" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B384" s="0" t="s">
+      <c r="B384" s="1" t="s">
         <v>707</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -8302,10 +8409,10 @@
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="0" t="s">
+      <c r="A385" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B385" s="0" t="s">
+      <c r="B385" s="1" t="s">
         <v>709</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -8313,10 +8420,10 @@
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="0" t="s">
+      <c r="A386" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B386" s="0" t="s">
+      <c r="B386" s="1" t="s">
         <v>711</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -8324,10 +8431,10 @@
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="A387" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B387" s="0" t="s">
+      <c r="B387" s="1" t="s">
         <v>713</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -8335,10 +8442,10 @@
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+      <c r="A388" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="1" t="s">
         <v>737</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -8346,10 +8453,10 @@
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
+      <c r="A389" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B389" s="0" t="s">
+      <c r="B389" s="1" t="s">
         <v>739</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -8357,10 +8464,10 @@
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="A390" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B390" s="0" t="s">
+      <c r="B390" s="1" t="s">
         <v>741</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -8368,10 +8475,10 @@
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
+      <c r="A391" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B391" s="0" t="s">
+      <c r="B391" s="1" t="s">
         <v>743</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -8379,10 +8486,10 @@
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
+      <c r="A392" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B392" s="0" t="s">
+      <c r="B392" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -8390,10 +8497,10 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
+      <c r="A393" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B393" s="0" t="s">
+      <c r="B393" s="1" t="s">
         <v>747</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -8401,10 +8508,10 @@
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="0" t="s">
+      <c r="A394" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="1" t="s">
         <v>749</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -8412,10 +8519,10 @@
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="0" t="s">
+      <c r="A395" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="1" t="s">
         <v>751</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -8423,10 +8530,10 @@
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="0" t="s">
+      <c r="A396" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B396" s="0" t="s">
+      <c r="B396" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -8434,10 +8541,10 @@
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="0" t="s">
+      <c r="A397" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B397" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -8445,10 +8552,10 @@
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="A398" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="B398" s="1" t="s">
         <v>757</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -8456,10 +8563,10 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="A399" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="B399" s="1" t="s">
         <v>759</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -8467,10 +8574,10 @@
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="A400" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B400" s="0" t="s">
+      <c r="B400" s="1" t="s">
         <v>761</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -8478,10 +8585,10 @@
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="A401" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B401" s="0" t="s">
+      <c r="B401" s="1" t="s">
         <v>763</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -8489,10 +8596,10 @@
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="A402" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B402" s="0" t="s">
+      <c r="B402" s="1" t="s">
         <v>765</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -8500,10 +8607,10 @@
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="A403" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B403" s="0" t="s">
+      <c r="B403" s="1" t="s">
         <v>767</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -8511,10 +8618,10 @@
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="A404" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B404" s="0" t="s">
+      <c r="B404" s="1" t="s">
         <v>769</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -8522,10 +8629,10 @@
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="A405" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B405" s="0" t="s">
+      <c r="B405" s="1" t="s">
         <v>771</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -8533,10 +8640,10 @@
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="A406" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B406" s="0" t="s">
+      <c r="B406" s="1" t="s">
         <v>773</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -8544,10 +8651,10 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
+      <c r="A407" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B407" s="0" t="s">
+      <c r="B407" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -8555,10 +8662,10 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="A408" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B408" s="0" t="s">
+      <c r="B408" s="1" t="s">
         <v>777</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -8566,10 +8673,10 @@
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+      <c r="A409" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B409" s="0" t="s">
+      <c r="B409" s="1" t="s">
         <v>779</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -8577,10 +8684,10 @@
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+      <c r="A410" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B410" s="0" t="s">
+      <c r="B410" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -8588,10 +8695,10 @@
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="A411" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B411" s="0" t="s">
+      <c r="B411" s="1" t="s">
         <v>783</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -8599,10 +8706,10 @@
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
+      <c r="A412" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B412" s="0" t="s">
+      <c r="B412" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -8610,10 +8717,10 @@
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
+      <c r="A413" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B413" s="0" t="s">
+      <c r="B413" s="1" t="s">
         <v>787</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -8621,10 +8728,10 @@
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
+      <c r="A414" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B414" s="0" t="s">
+      <c r="B414" s="1" t="s">
         <v>789</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -8632,10 +8739,10 @@
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
+      <c r="A415" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B415" s="0" t="s">
+      <c r="B415" s="1" t="s">
         <v>791</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -8643,10 +8750,10 @@
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
+      <c r="A416" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B416" s="0" t="s">
+      <c r="B416" s="1" t="s">
         <v>793</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -8654,10 +8761,10 @@
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
+      <c r="A417" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B417" s="0" t="s">
+      <c r="B417" s="1" t="s">
         <v>795</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -8665,10 +8772,10 @@
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
+      <c r="A418" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B418" s="0" t="s">
+      <c r="B418" s="1" t="s">
         <v>797</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -8676,10 +8783,10 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
+      <c r="A419" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B419" s="0" t="s">
+      <c r="B419" s="1" t="s">
         <v>799</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -8687,10 +8794,10 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
+      <c r="A420" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B420" s="0" t="s">
+      <c r="B420" s="1" t="s">
         <v>801</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -8698,10 +8805,10 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
+      <c r="A421" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B421" s="0" t="s">
+      <c r="B421" s="1" t="s">
         <v>803</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -8709,10 +8816,10 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
+      <c r="A422" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B422" s="0" t="s">
+      <c r="B422" s="1" t="s">
         <v>805</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -8720,10 +8827,10 @@
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
+      <c r="A423" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B423" s="0" t="s">
+      <c r="B423" s="1" t="s">
         <v>807</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -8731,10 +8838,10 @@
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
+      <c r="A424" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B424" s="0" t="s">
+      <c r="B424" s="1" t="s">
         <v>809</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -8742,10 +8849,10 @@
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+      <c r="A425" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B425" s="0" t="s">
+      <c r="B425" s="1" t="s">
         <v>811</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -8753,10 +8860,10 @@
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
+      <c r="A426" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B426" s="0" t="s">
+      <c r="B426" s="1" t="s">
         <v>813</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -8764,10 +8871,10 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
+      <c r="A427" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B427" s="0" t="s">
+      <c r="B427" s="1" t="s">
         <v>815</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -8775,10 +8882,10 @@
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="0" t="s">
+      <c r="A428" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B428" s="0" t="s">
+      <c r="B428" s="1" t="s">
         <v>817</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -8786,10 +8893,10 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="0" t="s">
+      <c r="A429" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B429" s="0" t="s">
+      <c r="B429" s="1" t="s">
         <v>819</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -8797,10 +8904,10 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
+      <c r="A430" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B430" s="0" t="s">
+      <c r="B430" s="1" t="s">
         <v>821</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -8808,10 +8915,10 @@
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="0" t="s">
+      <c r="A431" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B431" s="0" t="s">
+      <c r="B431" s="1" t="s">
         <v>823</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -8819,10 +8926,10 @@
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="0" t="s">
+      <c r="A432" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B432" s="0" t="s">
+      <c r="B432" s="1" t="s">
         <v>825</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -8830,10 +8937,10 @@
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="0" t="s">
+      <c r="A433" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B433" s="0" t="s">
+      <c r="B433" s="1" t="s">
         <v>827</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -8841,10 +8948,10 @@
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="0" t="s">
+      <c r="A434" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B434" s="0" t="s">
+      <c r="B434" s="1" t="s">
         <v>829</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -8852,10 +8959,10 @@
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
+      <c r="A435" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B435" s="0" t="s">
+      <c r="B435" s="1" t="s">
         <v>831</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -8863,10 +8970,10 @@
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="0" t="s">
+      <c r="A436" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B436" s="0" t="s">
+      <c r="B436" s="1" t="s">
         <v>833</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -8874,10 +8981,10 @@
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="0" t="s">
+      <c r="A437" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B437" s="0" t="s">
+      <c r="B437" s="1" t="s">
         <v>835</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -8885,10 +8992,10 @@
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
+      <c r="A438" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B438" s="0" t="s">
+      <c r="B438" s="1" t="s">
         <v>837</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -8896,10 +9003,10 @@
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
+      <c r="A439" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B439" s="0" t="s">
+      <c r="B439" s="1" t="s">
         <v>839</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -8907,10 +9014,10 @@
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="0" t="s">
+      <c r="A440" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B440" s="0" t="s">
+      <c r="B440" s="1" t="s">
         <v>841</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -8918,10 +9025,10 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="0" t="s">
+      <c r="A441" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B441" s="0" t="s">
+      <c r="B441" s="1" t="s">
         <v>843</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -8929,10 +9036,10 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
+      <c r="A442" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B442" s="0" t="s">
+      <c r="B442" s="1" t="s">
         <v>845</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -8940,10 +9047,10 @@
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="0" t="s">
+      <c r="A443" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B443" s="0" t="s">
+      <c r="B443" s="1" t="s">
         <v>847</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -8951,10 +9058,10 @@
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="0" t="s">
+      <c r="A444" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B444" s="0" t="s">
+      <c r="B444" s="1" t="s">
         <v>849</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -8962,10 +9069,10 @@
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="0" t="s">
+      <c r="A445" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B445" s="0" t="s">
+      <c r="B445" s="1" t="s">
         <v>851</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -8973,10 +9080,10 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
+      <c r="A446" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B446" s="0" t="s">
+      <c r="B446" s="1" t="s">
         <v>853</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -8984,10 +9091,10 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="0" t="s">
+      <c r="A447" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B447" s="0" t="s">
+      <c r="B447" s="1" t="s">
         <v>855</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -8995,10 +9102,10 @@
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="0" t="s">
+      <c r="A448" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B448" s="0" t="s">
+      <c r="B448" s="1" t="s">
         <v>857</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -9006,10 +9113,10 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
+      <c r="A449" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B449" s="0" t="s">
+      <c r="B449" s="1" t="s">
         <v>859</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -9017,10 +9124,10 @@
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="0" t="s">
+      <c r="A450" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B450" s="0" t="s">
+      <c r="B450" s="1" t="s">
         <v>861</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -9028,10 +9135,10 @@
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="0" t="s">
+      <c r="A451" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B451" s="0" t="s">
+      <c r="B451" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -9039,10 +9146,10 @@
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="0" t="s">
+      <c r="A452" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B452" s="0" t="s">
+      <c r="B452" s="1" t="s">
         <v>865</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -9050,10 +9157,10 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
+      <c r="A453" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B453" s="0" t="s">
+      <c r="B453" s="1" t="s">
         <v>867</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -9061,10 +9168,10 @@
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="0" t="s">
+      <c r="A454" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B454" s="0" t="s">
+      <c r="B454" s="1" t="s">
         <v>869</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -9072,10 +9179,10 @@
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="0" t="s">
+      <c r="A455" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B455" s="0" t="s">
+      <c r="B455" s="1" t="s">
         <v>871</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -9083,10 +9190,10 @@
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="0" t="s">
+      <c r="A456" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B456" s="0" t="s">
+      <c r="B456" s="1" t="s">
         <v>873</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -9094,10 +9201,10 @@
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="0" t="s">
+      <c r="A457" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B457" s="0" t="s">
+      <c r="B457" s="1" t="s">
         <v>875</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -9105,10 +9212,10 @@
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="0" t="s">
+      <c r="A458" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B458" s="0" t="s">
+      <c r="B458" s="1" t="s">
         <v>877</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -9116,10 +9223,10 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="0" t="s">
+      <c r="A459" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B459" s="0" t="s">
+      <c r="B459" s="1" t="s">
         <v>879</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -9127,10 +9234,10 @@
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="0" t="s">
+      <c r="A460" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B460" s="0" t="s">
+      <c r="B460" s="1" t="s">
         <v>881</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -9138,10 +9245,10 @@
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="0" t="s">
+      <c r="A461" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B461" s="0" t="s">
+      <c r="B461" s="1" t="s">
         <v>883</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -9149,10 +9256,10 @@
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="0" t="s">
+      <c r="A462" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B462" s="0" t="s">
+      <c r="B462" s="1" t="s">
         <v>885</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -9160,10 +9267,10 @@
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
+      <c r="A463" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B463" s="0" t="s">
+      <c r="B463" s="1" t="s">
         <v>887</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -9171,10 +9278,10 @@
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="0" t="s">
+      <c r="A464" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B464" s="0" t="s">
+      <c r="B464" s="1" t="s">
         <v>889</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -9182,10 +9289,10 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
+      <c r="A465" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B465" s="0" t="s">
+      <c r="B465" s="1" t="s">
         <v>891</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -9193,10 +9300,10 @@
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="0" t="s">
+      <c r="A466" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B466" s="0" t="s">
+      <c r="B466" s="1" t="s">
         <v>893</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -9204,10 +9311,10 @@
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A467" s="0" t="s">
+      <c r="A467" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B467" s="0" t="s">
+      <c r="B467" s="1" t="s">
         <v>895</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -9215,10 +9322,10 @@
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
+      <c r="A468" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B468" s="0" t="s">
+      <c r="B468" s="1" t="s">
         <v>897</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -9226,10 +9333,10 @@
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A469" s="0" t="s">
+      <c r="A469" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B469" s="0" t="s">
+      <c r="B469" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -9237,10 +9344,10 @@
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A470" s="0" t="s">
+      <c r="A470" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B470" s="0" t="s">
+      <c r="B470" s="1" t="s">
         <v>901</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -9248,10 +9355,10 @@
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="0" t="s">
+      <c r="A471" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B471" s="0" t="s">
+      <c r="B471" s="1" t="s">
         <v>903</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -9259,10 +9366,10 @@
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A472" s="0" t="s">
+      <c r="A472" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B472" s="0" t="s">
+      <c r="B472" s="1" t="s">
         <v>905</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -9270,10 +9377,10 @@
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="0" t="s">
+      <c r="A473" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B473" s="0" t="s">
+      <c r="B473" s="1" t="s">
         <v>907</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -9281,10 +9388,10 @@
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A474" s="0" t="s">
+      <c r="A474" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B474" s="0" t="s">
+      <c r="B474" s="1" t="s">
         <v>909</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -9292,10 +9399,10 @@
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A475" s="0" t="s">
+      <c r="A475" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B475" s="0" t="s">
+      <c r="B475" s="1" t="s">
         <v>911</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -9303,10 +9410,10 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
+      <c r="A476" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B476" s="0" t="s">
+      <c r="B476" s="1" t="s">
         <v>913</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -9314,10 +9421,10 @@
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="0" t="s">
+      <c r="A477" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B477" s="0" t="s">
+      <c r="B477" s="1" t="s">
         <v>915</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -9325,10 +9432,10 @@
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A478" s="0" t="s">
+      <c r="A478" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B478" s="0" t="s">
+      <c r="B478" s="1" t="s">
         <v>917</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -9336,10 +9443,10 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
+      <c r="A479" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B479" s="0" t="s">
+      <c r="B479" s="1" t="s">
         <v>919</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -9347,10 +9454,10 @@
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
+      <c r="A480" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B480" s="0" t="s">
+      <c r="B480" s="1" t="s">
         <v>921</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -9358,10 +9465,10 @@
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A481" s="0" t="s">
+      <c r="A481" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B481" s="0" t="s">
+      <c r="B481" s="1" t="s">
         <v>923</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -9369,10 +9476,10 @@
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A482" s="0" t="s">
+      <c r="A482" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B482" s="0" t="s">
+      <c r="B482" s="1" t="s">
         <v>925</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -9380,10 +9487,10 @@
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A483" s="0" t="s">
+      <c r="A483" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B483" s="0" t="s">
+      <c r="B483" s="1" t="s">
         <v>927</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -9391,10 +9498,10 @@
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A484" s="0" t="s">
+      <c r="A484" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B484" s="0" t="s">
+      <c r="B484" s="1" t="s">
         <v>929</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -9402,10 +9509,10 @@
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A485" s="0" t="s">
+      <c r="A485" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B485" s="0" t="s">
+      <c r="B485" s="1" t="s">
         <v>931</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -9413,10 +9520,10 @@
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A486" s="0" t="s">
+      <c r="A486" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B486" s="0" t="s">
+      <c r="B486" s="1" t="s">
         <v>933</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -9424,10 +9531,10 @@
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A487" s="0" t="s">
+      <c r="A487" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B487" s="0" t="s">
+      <c r="B487" s="1" t="s">
         <v>935</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9435,10 +9542,10 @@
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A488" s="0" t="s">
+      <c r="A488" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B488" s="0" t="s">
+      <c r="B488" s="1" t="s">
         <v>937</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -9446,10 +9553,10 @@
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A489" s="0" t="s">
+      <c r="A489" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B489" s="0" t="s">
+      <c r="B489" s="1" t="s">
         <v>939</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -9457,10 +9564,10 @@
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="0" t="s">
+      <c r="A490" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B490" s="0" t="s">
+      <c r="B490" s="1" t="s">
         <v>941</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -9468,10 +9575,10 @@
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A491" s="0" t="s">
+      <c r="A491" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B491" s="0" t="s">
+      <c r="B491" s="1" t="s">
         <v>943</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -9479,10 +9586,10 @@
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="0" t="s">
+      <c r="A492" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B492" s="0" t="s">
+      <c r="B492" s="1" t="s">
         <v>945</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -9490,10 +9597,10 @@
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
+      <c r="A493" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B493" s="0" t="s">
+      <c r="B493" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -9501,10 +9608,10 @@
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
+      <c r="A494" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B494" s="0" t="s">
+      <c r="B494" s="1" t="s">
         <v>949</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -9512,10 +9619,10 @@
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
+      <c r="A495" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B495" s="0" t="s">
+      <c r="B495" s="1" t="s">
         <v>951</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -9523,10 +9630,10 @@
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
+      <c r="A496" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="B496" s="0" t="s">
+      <c r="B496" s="1" t="s">
         <v>953</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -9534,10 +9641,10 @@
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
+      <c r="A497" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B497" s="0" t="s">
+      <c r="B497" s="1" t="s">
         <v>955</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -9545,10 +9652,10 @@
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
+      <c r="A498" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="B498" s="0" t="s">
+      <c r="B498" s="1" t="s">
         <v>957</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -9556,10 +9663,10 @@
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
+      <c r="A499" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B499" s="0" t="s">
+      <c r="B499" s="1" t="s">
         <v>959</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -9567,10 +9674,10 @@
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
+      <c r="A500" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="B500" s="0" t="s">
+      <c r="B500" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -9578,10 +9685,10 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
+      <c r="A501" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="B501" s="0" t="s">
+      <c r="B501" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -9589,10 +9696,10 @@
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
+      <c r="A502" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B502" s="0" t="s">
+      <c r="B502" s="1" t="s">
         <v>965</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -9600,10 +9707,10 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
+      <c r="A503" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="B503" s="0" t="s">
+      <c r="B503" s="1" t="s">
         <v>967</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -9611,10 +9718,10 @@
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
+      <c r="A504" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B504" s="0" t="s">
+      <c r="B504" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -9622,10 +9729,10 @@
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
+      <c r="A505" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B505" s="0" t="s">
+      <c r="B505" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -9633,10 +9740,10 @@
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
+      <c r="A506" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="B506" s="0" t="s">
+      <c r="B506" s="1" t="s">
         <v>973</v>
       </c>
       <c r="C506" s="1" t="s">
@@ -9644,10 +9751,10 @@
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
+      <c r="A507" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B507" s="0" t="s">
+      <c r="B507" s="1" t="s">
         <v>975</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -9655,10 +9762,10 @@
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
+      <c r="A508" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="B508" s="0" t="s">
+      <c r="B508" s="1" t="s">
         <v>977</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -9666,10 +9773,10 @@
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="0" t="s">
+      <c r="A509" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="B509" s="0" t="s">
+      <c r="B509" s="1" t="s">
         <v>979</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -9677,10 +9784,10 @@
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="0" t="s">
+      <c r="A510" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="B510" s="0" t="s">
+      <c r="B510" s="1" t="s">
         <v>981</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -9688,10 +9795,10 @@
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="0" t="s">
+      <c r="A511" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="B511" s="0" t="s">
+      <c r="B511" s="1" t="s">
         <v>983</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -9699,10 +9806,10 @@
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="0" t="s">
+      <c r="A512" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B512" s="0" t="s">
+      <c r="B512" s="1" t="s">
         <v>985</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -9710,10 +9817,10 @@
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="0" t="s">
+      <c r="A513" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="B513" s="0" t="s">
+      <c r="B513" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -9721,10 +9828,10 @@
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="0" t="s">
+      <c r="A514" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B514" s="0" t="s">
+      <c r="B514" s="1" t="s">
         <v>989</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -9732,10 +9839,10 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
+      <c r="A515" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B515" s="0" t="s">
+      <c r="B515" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -9743,10 +9850,10 @@
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
+      <c r="A516" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="B516" s="0" t="s">
+      <c r="B516" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -9754,10 +9861,10 @@
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="0" t="s">
+      <c r="A517" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="B517" s="0" t="s">
+      <c r="B517" s="1" t="s">
         <v>995</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -9765,10 +9872,10 @@
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
+      <c r="A518" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B518" s="0" t="s">
+      <c r="B518" s="1" t="s">
         <v>997</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -9776,10 +9883,10 @@
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="0" t="s">
+      <c r="A519" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="B519" s="0" t="s">
+      <c r="B519" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -9787,10 +9894,10 @@
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="0" t="s">
+      <c r="A520" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="B520" s="0" t="s">
+      <c r="B520" s="1" t="s">
         <v>957</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -9798,10 +9905,10 @@
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="0" t="s">
+      <c r="A521" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B521" s="0" t="s">
+      <c r="B521" s="1" t="s">
         <v>959</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -9809,10 +9916,10 @@
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="0" t="s">
+      <c r="A522" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B522" s="0" t="s">
+      <c r="B522" s="1" t="s">
         <v>961</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -9820,10 +9927,10 @@
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="0" t="s">
+      <c r="A523" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B523" s="0" t="s">
+      <c r="B523" s="1" t="s">
         <v>963</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -9831,10 +9938,10 @@
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="0" t="s">
+      <c r="A524" s="1" t="s">
         <v>1004</v>
       </c>
-      <c r="B524" s="0" t="s">
+      <c r="B524" s="1" t="s">
         <v>965</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -9842,10 +9949,10 @@
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="0" t="s">
+      <c r="A525" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B525" s="0" t="s">
+      <c r="B525" s="1" t="s">
         <v>967</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -9853,10 +9960,10 @@
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="0" t="s">
+      <c r="A526" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B526" s="0" t="s">
+      <c r="B526" s="1" t="s">
         <v>969</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -9864,10 +9971,10 @@
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="0" t="s">
+      <c r="A527" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B527" s="0" t="s">
+      <c r="B527" s="1" t="s">
         <v>971</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -9875,10 +9982,10 @@
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="0" t="s">
+      <c r="A528" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B528" s="0" t="s">
+      <c r="B528" s="1" t="s">
         <v>973</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -9886,10 +9993,10 @@
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="0" t="s">
+      <c r="A529" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B529" s="0" t="s">
+      <c r="B529" s="1" t="s">
         <v>975</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -9897,10 +10004,10 @@
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="0" t="s">
+      <c r="A530" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B530" s="0" t="s">
+      <c r="B530" s="1" t="s">
         <v>977</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -9908,10 +10015,10 @@
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="0" t="s">
+      <c r="A531" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B531" s="0" t="s">
+      <c r="B531" s="1" t="s">
         <v>979</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -9919,10 +10026,10 @@
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="0" t="s">
+      <c r="A532" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="B532" s="0" t="s">
+      <c r="B532" s="1" t="s">
         <v>981</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -9930,10 +10037,10 @@
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="0" t="s">
+      <c r="A533" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B533" s="0" t="s">
+      <c r="B533" s="1" t="s">
         <v>983</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -9941,10 +10048,10 @@
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="0" t="s">
+      <c r="A534" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B534" s="0" t="s">
+      <c r="B534" s="1" t="s">
         <v>985</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -9952,10 +10059,10 @@
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="0" t="s">
+      <c r="A535" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B535" s="0" t="s">
+      <c r="B535" s="1" t="s">
         <v>987</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -9963,10 +10070,10 @@
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="0" t="s">
+      <c r="A536" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B536" s="0" t="s">
+      <c r="B536" s="1" t="s">
         <v>989</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -9974,10 +10081,10 @@
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="0" t="s">
+      <c r="A537" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B537" s="0" t="s">
+      <c r="B537" s="1" t="s">
         <v>991</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -9985,10 +10092,10 @@
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="0" t="s">
+      <c r="A538" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B538" s="0" t="s">
+      <c r="B538" s="1" t="s">
         <v>993</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -9996,10 +10103,10 @@
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="0" t="s">
+      <c r="A539" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B539" s="0" t="s">
+      <c r="B539" s="1" t="s">
         <v>995</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -10007,10 +10114,10 @@
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="0" t="s">
+      <c r="A540" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B540" s="0" t="s">
+      <c r="B540" s="1" t="s">
         <v>997</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -10018,10 +10125,10 @@
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="0" t="s">
+      <c r="A541" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B541" s="0" t="s">
+      <c r="B541" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -10029,10 +10136,10 @@
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="0" t="s">
+      <c r="A542" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B542" s="0" t="s">
+      <c r="B542" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -10040,10 +10147,10 @@
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="0" t="s">
+      <c r="A543" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B543" s="0" t="s">
+      <c r="B543" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -10051,10 +10158,10 @@
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="0" t="s">
+      <c r="A544" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B544" s="0" t="s">
+      <c r="B544" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -10062,10 +10169,10 @@
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="0" t="s">
+      <c r="A545" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B545" s="0" t="s">
+      <c r="B545" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -10073,10 +10180,10 @@
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="0" t="s">
+      <c r="A546" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B546" s="0" t="s">
+      <c r="B546" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -10084,10 +10191,10 @@
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="0" t="s">
+      <c r="A547" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B547" s="0" t="s">
+      <c r="B547" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -10095,10 +10202,10 @@
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="0" t="s">
+      <c r="A548" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B548" s="0" t="s">
+      <c r="B548" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -10106,10 +10213,10 @@
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="0" t="s">
+      <c r="A549" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B549" s="0" t="s">
+      <c r="B549" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -10117,10 +10224,10 @@
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="0" t="s">
+      <c r="A550" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B550" s="0" t="s">
+      <c r="B550" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10128,10 +10235,10 @@
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="0" t="s">
+      <c r="A551" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B551" s="0" t="s">
+      <c r="B551" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -10139,10 +10246,10 @@
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="0" t="s">
+      <c r="A552" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B552" s="0" t="s">
+      <c r="B552" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="C552" s="1" t="s">
@@ -10150,10 +10257,10 @@
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="0" t="s">
+      <c r="A553" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B553" s="0" t="s">
+      <c r="B553" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C553" s="1" t="s">
@@ -10161,10 +10268,10 @@
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="0" t="s">
+      <c r="A554" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B554" s="0" t="s">
+      <c r="B554" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="C554" s="1" t="s">
@@ -10172,10 +10279,10 @@
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="0" t="s">
+      <c r="A555" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B555" s="0" t="s">
+      <c r="B555" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="C555" s="1" t="s">
@@ -10183,10 +10290,10 @@
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="0" t="s">
+      <c r="A556" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B556" s="0" t="s">
+      <c r="B556" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C556" s="1" t="s">
@@ -10194,10 +10301,10 @@
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="0" t="s">
+      <c r="A557" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B557" s="0" t="s">
+      <c r="B557" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -10205,10 +10312,10 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
+      <c r="A558" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B558" s="0" t="s">
+      <c r="B558" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="C558" s="1" t="s">
@@ -10216,10 +10323,10 @@
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
+      <c r="A559" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B559" s="0" t="s">
+      <c r="B559" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C559" s="1" t="s">
@@ -10227,10 +10334,10 @@
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="0" t="s">
+      <c r="A560" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B560" s="0" t="s">
+      <c r="B560" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="C560" s="1" t="s">
@@ -10238,10 +10345,10 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
+      <c r="A561" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B561" s="0" t="s">
+      <c r="B561" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="C561" s="1" t="s">
@@ -10249,10 +10356,10 @@
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
+      <c r="A562" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B562" s="0" t="s">
+      <c r="B562" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="C562" s="1" t="s">
@@ -10260,10 +10367,10 @@
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="0" t="s">
+      <c r="A563" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B563" s="0" t="s">
+      <c r="B563" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="C563" s="1" t="s">
@@ -10271,10 +10378,10 @@
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="0" t="s">
+      <c r="A564" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B564" s="0" t="s">
+      <c r="B564" s="1" t="s">
         <v>1068</v>
       </c>
       <c r="C564" s="1" t="s">
@@ -10282,10 +10389,10 @@
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="0" t="s">
+      <c r="A565" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B565" s="0" t="s">
+      <c r="B565" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C565" s="1" t="s">
@@ -10293,10 +10400,10 @@
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="0" t="s">
+      <c r="A566" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B566" s="0" t="s">
+      <c r="B566" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="C566" s="1" t="s">
@@ -10304,10 +10411,10 @@
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="0" t="s">
+      <c r="A567" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B567" s="0" t="s">
+      <c r="B567" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="C567" s="1" t="s">
@@ -10315,10 +10422,10 @@
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="0" t="s">
+      <c r="A568" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B568" s="0" t="s">
+      <c r="B568" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="C568" s="1" t="s">
@@ -10326,10 +10433,10 @@
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="0" t="s">
+      <c r="A569" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B569" s="0" t="s">
+      <c r="B569" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="C569" s="1" t="s">
@@ -10337,10 +10444,10 @@
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="0" t="s">
+      <c r="A570" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B570" s="0" t="s">
+      <c r="B570" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="C570" s="1" t="s">
@@ -10348,10 +10455,10 @@
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="0" t="s">
+      <c r="A571" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B571" s="0" t="s">
+      <c r="B571" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="C571" s="1" t="s">
@@ -10359,10 +10466,10 @@
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="0" t="s">
+      <c r="A572" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B572" s="0" t="s">
+      <c r="B572" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="C572" s="1" t="s">
@@ -10370,10 +10477,10 @@
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="0" t="s">
+      <c r="A573" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B573" s="0" t="s">
+      <c r="B573" s="1" t="s">
         <v>1086</v>
       </c>
       <c r="C573" s="1" t="s">
@@ -10381,10 +10488,10 @@
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
+      <c r="A574" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B574" s="0" t="s">
+      <c r="B574" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="C574" s="1" t="s">
@@ -10392,10 +10499,10 @@
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="0" t="s">
+      <c r="A575" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B575" s="0" t="s">
+      <c r="B575" s="1" t="s">
         <v>1090</v>
       </c>
       <c r="C575" s="1" t="s">
@@ -10403,10 +10510,10 @@
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="0" t="s">
+      <c r="A576" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B576" s="0" t="s">
+      <c r="B576" s="1" t="s">
         <v>1092</v>
       </c>
       <c r="C576" s="1" t="s">
@@ -10414,10 +10521,10 @@
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="0" t="s">
+      <c r="A577" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B577" s="0" t="s">
+      <c r="B577" s="1" t="s">
         <v>1094</v>
       </c>
       <c r="C577" s="1" t="s">
@@ -10425,10 +10532,10 @@
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="0" t="s">
+      <c r="A578" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B578" s="0" t="s">
+      <c r="B578" s="1" t="s">
         <v>1096</v>
       </c>
       <c r="C578" s="1" t="s">
@@ -10436,10 +10543,10 @@
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="0" t="s">
+      <c r="A579" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B579" s="0" t="s">
+      <c r="B579" s="1" t="s">
         <v>1098</v>
       </c>
       <c r="C579" s="1" t="s">
@@ -10447,10 +10554,10 @@
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="0" t="s">
+      <c r="A580" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B580" s="0" t="s">
+      <c r="B580" s="1" t="s">
         <v>1100</v>
       </c>
       <c r="C580" s="1" t="s">
@@ -10458,10 +10565,10 @@
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
+      <c r="A581" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B581" s="0" t="s">
+      <c r="B581" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="C581" s="1" t="s">
@@ -10469,10 +10576,10 @@
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="0" t="s">
+      <c r="A582" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B582" s="0" t="s">
+      <c r="B582" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="C582" s="1" t="s">
@@ -10480,10 +10587,10 @@
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="0" t="s">
+      <c r="A583" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B583" s="0" t="s">
+      <c r="B583" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="C583" s="1" t="s">
@@ -10491,10 +10598,10 @@
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="0" t="s">
+      <c r="A584" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B584" s="0" t="s">
+      <c r="B584" s="1" t="s">
         <v>1108</v>
       </c>
       <c r="C584" s="1" t="s">
@@ -10502,10 +10609,10 @@
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="0" t="s">
+      <c r="A585" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B585" s="0" t="s">
+      <c r="B585" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="C585" s="1" t="s">
@@ -10513,10 +10620,10 @@
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="0" t="s">
+      <c r="A586" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B586" s="0" t="s">
+      <c r="B586" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="C586" s="1" t="s">
@@ -10524,10 +10631,10 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
+      <c r="A587" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B587" s="0" t="s">
+      <c r="B587" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="C587" s="1" t="s">
@@ -10535,10 +10642,10 @@
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
+      <c r="A588" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B588" s="0" t="s">
+      <c r="B588" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="C588" s="1" t="s">
@@ -10546,10 +10653,10 @@
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="0" t="s">
+      <c r="A589" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B589" s="0" t="s">
+      <c r="B589" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="C589" s="1" t="s">
@@ -10557,10 +10664,10 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
+      <c r="A590" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B590" s="0" t="s">
+      <c r="B590" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="C590" s="1" t="s">
@@ -10568,10 +10675,10 @@
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
+      <c r="A591" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B591" s="0" t="s">
+      <c r="B591" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="C591" s="1" t="s">
@@ -10579,10 +10686,10 @@
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="0" t="s">
+      <c r="A592" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B592" s="0" t="s">
+      <c r="B592" s="1" t="s">
         <v>1125</v>
       </c>
       <c r="C592" s="1" t="s">
@@ -10590,10 +10697,10 @@
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="0" t="s">
+      <c r="A593" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B593" s="0" t="s">
+      <c r="B593" s="1" t="s">
         <v>1127</v>
       </c>
       <c r="C593" s="1" t="s">
@@ -10601,10 +10708,10 @@
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="0" t="s">
+      <c r="A594" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B594" s="0" t="s">
+      <c r="B594" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="C594" s="1" t="s">
@@ -10612,10 +10719,10 @@
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="0" t="s">
+      <c r="A595" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="B595" s="0" t="s">
+      <c r="B595" s="1" t="s">
         <v>1131</v>
       </c>
       <c r="C595" s="1" t="s">
@@ -10623,10 +10730,10 @@
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="0" t="s">
+      <c r="A596" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B596" s="0" t="s">
+      <c r="B596" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="C596" s="1" t="s">
@@ -10634,10 +10741,10 @@
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="0" t="s">
+      <c r="A597" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B597" s="0" t="s">
+      <c r="B597" s="1" t="s">
         <v>1135</v>
       </c>
       <c r="C597" s="1" t="s">
@@ -10645,10 +10752,10 @@
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="0" t="s">
+      <c r="A598" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B598" s="0" t="s">
+      <c r="B598" s="1" t="s">
         <v>1137</v>
       </c>
       <c r="C598" s="1" t="s">
@@ -10656,10 +10763,10 @@
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="0" t="s">
+      <c r="A599" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B599" s="0" t="s">
+      <c r="B599" s="1" t="s">
         <v>1139</v>
       </c>
       <c r="C599" s="1" t="s">
@@ -10667,10 +10774,10 @@
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="0" t="s">
+      <c r="A600" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B600" s="0" t="s">
+      <c r="B600" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="C600" s="1" t="s">
@@ -10678,10 +10785,10 @@
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="0" t="s">
+      <c r="A601" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B601" s="0" t="s">
+      <c r="B601" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="C601" s="1" t="s">
@@ -10689,10 +10796,10 @@
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="0" t="s">
+      <c r="A602" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B602" s="0" t="s">
+      <c r="B602" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="C602" s="1" t="s">
@@ -10700,10 +10807,10 @@
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="0" t="s">
+      <c r="A603" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B603" s="0" t="s">
+      <c r="B603" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="C603" s="1" t="s">
@@ -10711,10 +10818,10 @@
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="0" t="s">
+      <c r="A604" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B604" s="0" t="s">
+      <c r="B604" s="1" t="s">
         <v>1149</v>
       </c>
       <c r="C604" s="1" t="s">
@@ -10722,10 +10829,10 @@
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="0" t="s">
+      <c r="A605" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="B605" s="0" t="s">
+      <c r="B605" s="1" t="s">
         <v>1151</v>
       </c>
       <c r="C605" s="1" t="s">
@@ -10733,10 +10840,10 @@
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
+      <c r="A606" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B606" s="0" t="s">
+      <c r="B606" s="1" t="s">
         <v>1153</v>
       </c>
       <c r="C606" s="1" t="s">
@@ -10744,10 +10851,10 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
+      <c r="A607" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="B607" s="0" t="s">
+      <c r="B607" s="1" t="s">
         <v>1155</v>
       </c>
       <c r="C607" s="1" t="s">
@@ -10755,10 +10862,10 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B608" s="0" t="s">
+      <c r="B608" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="C608" s="1" t="s">
@@ -10766,10 +10873,10 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
+      <c r="A609" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="B609" s="0" t="s">
+      <c r="B609" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="C609" s="1" t="s">
@@ -10777,10 +10884,10 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
+      <c r="A610" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="C610" s="1" t="s">
@@ -10788,10 +10895,10 @@
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
+      <c r="A611" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="B611" s="0" t="s">
+      <c r="B611" s="1" t="s">
         <v>1163</v>
       </c>
       <c r="C611" s="1" t="s">
@@ -10799,10 +10906,10 @@
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="0" t="s">
+      <c r="A612" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B612" s="0" t="s">
+      <c r="B612" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="C612" s="1" t="s">
@@ -10810,10 +10917,10 @@
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
+      <c r="A613" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B613" s="0" t="s">
+      <c r="B613" s="1" t="s">
         <v>1167</v>
       </c>
       <c r="C613" s="1" t="s">
@@ -10821,10 +10928,10 @@
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="0" t="s">
+      <c r="A614" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="B614" s="0" t="s">
+      <c r="B614" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="C614" s="1" t="s">
@@ -10832,10 +10939,10 @@
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="0" t="s">
+      <c r="A615" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B615" s="0" t="s">
+      <c r="B615" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="C615" s="1" t="s">
@@ -10843,10 +10950,10 @@
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="0" t="s">
+      <c r="A616" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B616" s="0" t="s">
+      <c r="B616" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="C616" s="1" t="s">
@@ -10854,10 +10961,10 @@
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="0" t="s">
+      <c r="A617" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="B617" s="0" t="s">
+      <c r="B617" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="C617" s="1" t="s">
@@ -10865,10 +10972,10 @@
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="0" t="s">
+      <c r="A618" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B618" s="0" t="s">
+      <c r="B618" s="1" t="s">
         <v>1177</v>
       </c>
       <c r="C618" s="1" t="s">
@@ -10876,10 +10983,10 @@
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="0" t="s">
+      <c r="A619" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="B619" s="0" t="s">
+      <c r="B619" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="C619" s="1" t="s">
@@ -10887,10 +10994,10 @@
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="0" t="s">
+      <c r="A620" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B620" s="0" t="s">
+      <c r="B620" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="C620" s="1" t="s">
@@ -10898,10 +11005,10 @@
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="0" t="s">
+      <c r="A621" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B621" s="0" t="s">
+      <c r="B621" s="1" t="s">
         <v>1183</v>
       </c>
       <c r="C621" s="1" t="s">
@@ -10909,10 +11016,10 @@
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="0" t="s">
+      <c r="A622" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B622" s="0" t="s">
+      <c r="B622" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="C622" s="1" t="s">
@@ -10920,10 +11027,10 @@
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="0" t="s">
+      <c r="A623" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B623" s="0" t="s">
+      <c r="B623" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="C623" s="1" t="s">
@@ -10931,10 +11038,10 @@
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="0" t="s">
+      <c r="A624" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B624" s="0" t="s">
+      <c r="B624" s="1" t="s">
         <v>1189</v>
       </c>
       <c r="C624" s="1" t="s">
@@ -10942,10 +11049,10 @@
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="0" t="s">
+      <c r="A625" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B625" s="0" t="s">
+      <c r="B625" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="C625" s="1" t="s">
@@ -10953,10 +11060,10 @@
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="0" t="s">
+      <c r="A626" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B626" s="0" t="s">
+      <c r="B626" s="1" t="s">
         <v>1193</v>
       </c>
       <c r="C626" s="1" t="s">
@@ -10964,10 +11071,10 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
+      <c r="A627" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B627" s="0" t="s">
+      <c r="B627" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="C627" s="1" t="s">
@@ -10975,10 +11082,10 @@
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="0" t="s">
+      <c r="A628" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B628" s="0" t="s">
+      <c r="B628" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C628" s="1" t="s">
@@ -10986,10 +11093,10 @@
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="0" t="s">
+      <c r="A629" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="B629" s="0" t="s">
+      <c r="B629" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="C629" s="1" t="s">
@@ -10997,10 +11104,10 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
+      <c r="A630" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B630" s="0" t="s">
+      <c r="B630" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="C630" s="1" t="s">
@@ -11008,10 +11115,10 @@
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
+      <c r="A631" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="B631" s="0" t="s">
+      <c r="B631" s="1" t="s">
         <v>1203</v>
       </c>
       <c r="C631" s="1" t="s">
@@ -11019,10 +11126,10 @@
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="0" t="s">
+      <c r="A632" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="B632" s="0" t="s">
+      <c r="B632" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="C632" s="1" t="s">
@@ -11030,10 +11137,10 @@
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="0" t="s">
+      <c r="A633" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="B633" s="0" t="s">
+      <c r="B633" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="C633" s="1" t="s">
@@ -11041,10 +11148,10 @@
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="0" t="s">
+      <c r="A634" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="B634" s="0" t="s">
+      <c r="B634" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="C634" s="1" t="s">
@@ -11052,10 +11159,10 @@
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0" t="s">
+      <c r="A635" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="B635" s="0" t="s">
+      <c r="B635" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="C635" s="1" t="s">
@@ -11063,10 +11170,10 @@
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="0" t="s">
+      <c r="A636" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="B636" s="0" t="s">
+      <c r="B636" s="1" t="s">
         <v>1213</v>
       </c>
       <c r="C636" s="1" t="s">
@@ -11074,10 +11181,10 @@
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="0" t="s">
+      <c r="A637" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B637" s="0" t="s">
+      <c r="B637" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="C637" s="1" t="s">
@@ -11085,10 +11192,10 @@
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="0" t="s">
+      <c r="A638" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="B638" s="0" t="s">
+      <c r="B638" s="1" t="s">
         <v>1217</v>
       </c>
       <c r="C638" s="1" t="s">
@@ -11096,10 +11203,10 @@
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="0" t="s">
+      <c r="A639" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B639" s="0" t="s">
+      <c r="B639" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="C639" s="1" t="s">
@@ -11107,10 +11214,10 @@
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="0" t="s">
+      <c r="A640" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B640" s="0" t="s">
+      <c r="B640" s="1" t="s">
         <v>1221</v>
       </c>
       <c r="C640" s="1" t="s">
@@ -11118,10 +11225,10 @@
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="0" t="s">
+      <c r="A641" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B641" s="0" t="s">
+      <c r="B641" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="C641" s="1" t="s">
@@ -11129,10 +11236,10 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
+      <c r="A642" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="B642" s="0" t="s">
+      <c r="B642" s="1" t="s">
         <v>1225</v>
       </c>
       <c r="C642" s="1" t="s">
@@ -11140,10 +11247,10 @@
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="0" t="s">
+      <c r="A643" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B643" s="0" t="s">
+      <c r="B643" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="C643" s="1" t="s">
@@ -11151,10 +11258,10 @@
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="0" t="s">
+      <c r="A644" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="B644" s="0" t="s">
+      <c r="B644" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="C644" s="1" t="s">
@@ -11162,10 +11269,10 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
+      <c r="A645" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="B645" s="0" t="s">
+      <c r="B645" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="C645" s="1" t="s">
@@ -11173,10 +11280,10 @@
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
+      <c r="A646" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B646" s="0" t="s">
+      <c r="B646" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="C646" s="1" t="s">
@@ -11184,10 +11291,10 @@
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="0" t="s">
+      <c r="A647" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="B647" s="0" t="s">
+      <c r="B647" s="1" t="s">
         <v>1235</v>
       </c>
       <c r="C647" s="1" t="s">
@@ -11195,10 +11302,10 @@
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="0" t="s">
+      <c r="A648" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B648" s="0" t="s">
+      <c r="B648" s="1" t="s">
         <v>1237</v>
       </c>
       <c r="C648" s="1" t="s">
@@ -11206,10 +11313,10 @@
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="0" t="s">
+      <c r="A649" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="B649" s="0" t="s">
+      <c r="B649" s="1" t="s">
         <v>1239</v>
       </c>
       <c r="C649" s="1" t="s">
@@ -11217,10 +11324,10 @@
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="0" t="s">
+      <c r="A650" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="B650" s="0" t="s">
+      <c r="B650" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="C650" s="1" t="s">
@@ -11228,10 +11335,10 @@
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="0" t="s">
+      <c r="A651" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="B651" s="0" t="s">
+      <c r="B651" s="1" t="s">
         <v>1243</v>
       </c>
       <c r="C651" s="1" t="s">
@@ -11239,10 +11346,10 @@
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="0" t="s">
+      <c r="A652" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B652" s="0" t="s">
+      <c r="B652" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="C652" s="1" t="s">
@@ -11250,10 +11357,10 @@
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="0" t="s">
+      <c r="A653" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B653" s="0" t="s">
+      <c r="B653" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="C653" s="1" t="s">
@@ -11261,10 +11368,10 @@
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="0" t="s">
+      <c r="A654" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="B654" s="0" t="s">
+      <c r="B654" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="C654" s="1" t="s">
@@ -11272,14 +11379,349 @@
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="0" t="s">
+      <c r="A655" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B655" s="0" t="s">
+      <c r="B655" s="1" t="s">
         <v>1251</v>
       </c>
       <c r="C655" s="1" t="s">
         <v>1121</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>

--- a/export/dicionario.xlsx
+++ b/export/dicionario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ambiental" sheetId="1" state="visible" r:id="rId3"/>
@@ -3835,7 +3835,7 @@
     <t xml:space="preserve">prec</t>
   </si>
   <si>
-    <t xml:space="preserve">Precipitação</t>
+    <t xml:space="preserve">Precipitação (acumulada)</t>
   </si>
   <si>
     <t xml:space="preserve">rh</t>
@@ -3959,7 +3959,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4092,7 +4092,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -4213,8 +4213,8 @@
   </sheetPr>
   <dimension ref="A1:C655"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A632" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B646" activeCellId="0" sqref="B646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11407,7 +11407,7 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -11555,11 +11555,14 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.39"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
